--- a/raw-data-prep/raw_data/Condition_Assignment.xlsx
+++ b/raw-data-prep/raw_data/Condition_Assignment.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="16275" windowHeight="11565"/>
@@ -11,12 +11,12 @@
     <sheet name="Blank" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="17">
   <si>
     <t>Subject #</t>
   </si>
@@ -65,15 +65,18 @@
   <si>
     <t>.</t>
   </si>
+  <si>
+    <t>HG</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,16 +84,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -312,11 +328,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -342,8 +374,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1"/>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="17" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="17" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -431,7 +467,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -466,7 +501,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -642,14 +676,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G452"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="E184" sqref="E184"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="L192" sqref="L192"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
@@ -659,7 +693,7 @@
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,7 +716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -705,7 +739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="17.25" customHeight="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -728,7 +762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="17.25" customHeight="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -751,7 +785,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="17.25" customHeight="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -774,7 +808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="17.25" customHeight="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -797,7 +831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="17.25" customHeight="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -820,7 +854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="17.25" customHeight="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -843,7 +877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="17.25" customHeight="1">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -866,7 +900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="17.25" customHeight="1">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -889,7 +923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="17.25" customHeight="1">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -912,7 +946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="17.25" customHeight="1">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -935,7 +969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="17.25" customHeight="1">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -958,7 +992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="17.25" customHeight="1">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -981,7 +1015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="17.25" customHeight="1">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1004,7 +1038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="17.25" customHeight="1">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1027,7 +1061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="17.25" customHeight="1">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1050,7 +1084,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="17.25" customHeight="1">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1073,7 +1107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="17.25" customHeight="1">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1096,7 +1130,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="17.25" customHeight="1">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1119,7 +1153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1142,7 +1176,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="17.25" customHeight="1">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1165,7 +1199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="17.25" customHeight="1">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1188,7 +1222,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="17.25" customHeight="1">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1211,7 +1245,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="17.25" customHeight="1">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1234,7 +1268,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="17.25" customHeight="1">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1257,7 +1291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="17.25" customHeight="1">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1280,7 +1314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="17.25" customHeight="1">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1303,7 +1337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="17.25" customHeight="1">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -1326,7 +1360,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="17.25" customHeight="1">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1349,7 +1383,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="17.25" customHeight="1">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -1372,7 +1406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="17.25" customHeight="1">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -1395,7 +1429,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="17.25" customHeight="1">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -1418,7 +1452,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="17.25" customHeight="1">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -1441,7 +1475,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="17.25" customHeight="1">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -1464,7 +1498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="17.25" customHeight="1">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -1487,7 +1521,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="17.25" customHeight="1">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -1510,7 +1544,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="17.25" customHeight="1">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -1533,7 +1567,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="17.25" customHeight="1">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -1556,7 +1590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="17.25" customHeight="1">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -1579,7 +1613,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -1602,7 +1636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="17.25" customHeight="1">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -1625,7 +1659,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="17.25" customHeight="1">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -1648,7 +1682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="17.25" customHeight="1">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -1671,7 +1705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="17.25" customHeight="1">
       <c r="A45" s="7">
         <v>44</v>
       </c>
@@ -1694,7 +1728,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="17.25" customHeight="1">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -1717,7 +1751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="17.25" customHeight="1">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -1740,7 +1774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="17.25" customHeight="1">
       <c r="A48" s="7">
         <v>47</v>
       </c>
@@ -1763,7 +1797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="17.25" customHeight="1">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -1786,7 +1820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="17.25" customHeight="1">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -1809,7 +1843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="17.25" customHeight="1">
       <c r="A51" s="7">
         <v>50</v>
       </c>
@@ -1832,7 +1866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="17.25" customHeight="1">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -1855,7 +1889,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="17.25" customHeight="1">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -1878,7 +1912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="17.25" customHeight="1">
       <c r="A54" s="7">
         <v>53</v>
       </c>
@@ -1901,7 +1935,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="17.25" customHeight="1">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -1924,7 +1958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="17.25" customHeight="1">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -1947,7 +1981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="17.25" customHeight="1">
       <c r="A57" s="7">
         <v>56</v>
       </c>
@@ -1970,7 +2004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="17.25" customHeight="1">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -1993,7 +2027,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="17.25" customHeight="1">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -2016,7 +2050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="17.25" customHeight="1">
       <c r="A60" s="7">
         <v>59</v>
       </c>
@@ -2039,7 +2073,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -2062,7 +2096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="17.25" customHeight="1">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -2085,7 +2119,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="17.25" customHeight="1">
       <c r="A63" s="7">
         <v>62</v>
       </c>
@@ -2108,7 +2142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="17.25" customHeight="1">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -2131,7 +2165,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="17.25" customHeight="1">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -2154,7 +2188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="17.25" customHeight="1">
       <c r="A66" s="7">
         <v>65</v>
       </c>
@@ -2177,7 +2211,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="17.25" customHeight="1">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -2200,7 +2234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="17.25" customHeight="1">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -2223,7 +2257,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="17.25" customHeight="1">
       <c r="A69" s="7">
         <v>68</v>
       </c>
@@ -2246,7 +2280,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="17.25" customHeight="1">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -2269,7 +2303,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="17.25" customHeight="1">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -2292,7 +2326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="17.25" customHeight="1">
       <c r="A72" s="7">
         <v>71</v>
       </c>
@@ -2315,7 +2349,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="17.25" customHeight="1">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -2338,7 +2372,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="17.25" customHeight="1">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -2361,7 +2395,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="17.25" customHeight="1">
       <c r="A75" s="7">
         <v>74</v>
       </c>
@@ -2384,7 +2418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="17.25" customHeight="1">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -2407,7 +2441,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="17.25" customHeight="1">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -2430,7 +2464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="17.25" customHeight="1">
       <c r="A78" s="7">
         <v>77</v>
       </c>
@@ -2453,7 +2487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="17.25" customHeight="1">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -2476,7 +2510,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="17.25" customHeight="1">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -2499,7 +2533,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A81" s="7">
         <v>80</v>
       </c>
@@ -2522,7 +2556,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="17.25" customHeight="1">
       <c r="A82" s="7">
         <v>81</v>
       </c>
@@ -2545,7 +2579,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="17.25" customHeight="1">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -2568,7 +2602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="17.25" customHeight="1">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -2591,7 +2625,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="17.25" customHeight="1">
       <c r="A85" s="7">
         <v>84</v>
       </c>
@@ -2614,7 +2648,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="17.25" customHeight="1">
       <c r="A86" s="7">
         <v>85</v>
       </c>
@@ -2637,7 +2671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="17.25" customHeight="1">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -2660,7 +2694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="17.25" customHeight="1">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -2683,7 +2717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="17.25" customHeight="1">
       <c r="A89" s="7">
         <v>88</v>
       </c>
@@ -2706,7 +2740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="17.25" customHeight="1">
       <c r="A90" s="7">
         <v>89</v>
       </c>
@@ -2729,7 +2763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="17.25" customHeight="1">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -2752,7 +2786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="17.25" customHeight="1">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -2775,7 +2809,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="17.25" customHeight="1">
       <c r="A93" s="7">
         <v>92</v>
       </c>
@@ -2798,7 +2832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="17.25" customHeight="1">
       <c r="A94" s="7">
         <v>93</v>
       </c>
@@ -2821,7 +2855,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="17.25" customHeight="1">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -2844,7 +2878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="17.25" customHeight="1">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -2867,7 +2901,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="17.25" customHeight="1">
       <c r="A97" s="7">
         <v>96</v>
       </c>
@@ -2890,7 +2924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="17.25" customHeight="1">
       <c r="A98" s="7">
         <v>97</v>
       </c>
@@ -2913,7 +2947,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="17.25" customHeight="1">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -2936,7 +2970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="17.25" customHeight="1">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -2959,7 +2993,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A101" s="7">
         <v>100</v>
       </c>
@@ -2982,7 +3016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="17.25" customHeight="1">
       <c r="A102" s="7">
         <v>101</v>
       </c>
@@ -3005,7 +3039,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="17.25" customHeight="1">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -3028,7 +3062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="17.25" customHeight="1">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -3051,7 +3085,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="17.25" customHeight="1">
       <c r="A105" s="7">
         <v>104</v>
       </c>
@@ -3074,7 +3108,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="17.25" customHeight="1">
       <c r="A106" s="7">
         <v>105</v>
       </c>
@@ -3097,7 +3131,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="17.25" customHeight="1">
       <c r="A107" s="4">
         <v>106</v>
       </c>
@@ -3120,7 +3154,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="17.25" customHeight="1">
       <c r="A108" s="4">
         <v>107</v>
       </c>
@@ -3143,7 +3177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="17.25" customHeight="1">
       <c r="A109" s="7">
         <v>108</v>
       </c>
@@ -3166,7 +3200,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="17.25" customHeight="1">
       <c r="A110" s="7">
         <v>109</v>
       </c>
@@ -3189,7 +3223,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="17.25" customHeight="1">
       <c r="A111" s="4">
         <v>110</v>
       </c>
@@ -3212,7 +3246,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="17.25" customHeight="1">
       <c r="A112" s="4">
         <v>111</v>
       </c>
@@ -3235,7 +3269,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="17.25" customHeight="1">
       <c r="A113" s="7">
         <v>112</v>
       </c>
@@ -3258,7 +3292,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="17.25" customHeight="1">
       <c r="A114" s="7">
         <v>113</v>
       </c>
@@ -3281,7 +3315,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="17.25" customHeight="1">
       <c r="A115" s="4">
         <v>114</v>
       </c>
@@ -3304,7 +3338,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="17.25" customHeight="1">
       <c r="A116" s="4">
         <v>115</v>
       </c>
@@ -3327,7 +3361,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="17.25" customHeight="1">
       <c r="A117" s="7">
         <v>116</v>
       </c>
@@ -3350,7 +3384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="17.25" customHeight="1">
       <c r="A118" s="7">
         <v>117</v>
       </c>
@@ -3373,7 +3407,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="17.25" customHeight="1">
       <c r="A119" s="4">
         <v>118</v>
       </c>
@@ -3396,7 +3430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="17.25" customHeight="1">
       <c r="A120" s="4">
         <v>119</v>
       </c>
@@ -3419,7 +3453,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A121" s="7">
         <v>120</v>
       </c>
@@ -3442,7 +3476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="17.25" customHeight="1">
       <c r="A122" s="7">
         <v>121</v>
       </c>
@@ -3465,7 +3499,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" ht="17.25" customHeight="1">
       <c r="A123" s="4">
         <v>122</v>
       </c>
@@ -3488,7 +3522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" ht="17.25" customHeight="1">
       <c r="A124" s="7">
         <v>123</v>
       </c>
@@ -3511,7 +3545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" ht="17.25" customHeight="1">
       <c r="A125" s="4">
         <v>124</v>
       </c>
@@ -3534,7 +3568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="17.25" customHeight="1">
       <c r="A126" s="7">
         <v>125</v>
       </c>
@@ -3557,7 +3591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" ht="17.25" customHeight="1">
       <c r="A127" s="4">
         <v>126</v>
       </c>
@@ -3580,7 +3614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" ht="17.25" customHeight="1">
       <c r="A128" s="7">
         <v>127</v>
       </c>
@@ -3603,7 +3637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="17.25" customHeight="1">
       <c r="A129" s="4">
         <v>128</v>
       </c>
@@ -3626,7 +3660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="17.25" customHeight="1">
       <c r="A130" s="7">
         <v>129</v>
       </c>
@@ -3649,7 +3683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="17.25" customHeight="1">
       <c r="A131" s="4">
         <v>130</v>
       </c>
@@ -3672,7 +3706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="17.25" customHeight="1">
       <c r="A132" s="7">
         <v>131</v>
       </c>
@@ -3695,7 +3729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" ht="17.25" customHeight="1">
       <c r="A133" s="4">
         <v>132</v>
       </c>
@@ -3718,7 +3752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" ht="17.25" customHeight="1">
       <c r="A134" s="7">
         <v>133</v>
       </c>
@@ -3741,7 +3775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" ht="17.25" customHeight="1">
       <c r="A135" s="4">
         <v>134</v>
       </c>
@@ -3764,7 +3798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" ht="17.25" customHeight="1">
       <c r="A136" s="7">
         <v>135</v>
       </c>
@@ -3787,7 +3821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" ht="17.25" customHeight="1">
       <c r="A137" s="4">
         <v>136</v>
       </c>
@@ -3810,7 +3844,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" ht="17.25" customHeight="1">
       <c r="A138" s="7">
         <v>137</v>
       </c>
@@ -3833,7 +3867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" ht="17.25" customHeight="1">
       <c r="A139" s="4">
         <v>138</v>
       </c>
@@ -3856,7 +3890,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" ht="17.25" customHeight="1">
       <c r="A140" s="7">
         <v>139</v>
       </c>
@@ -3879,7 +3913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A141" s="4">
         <v>140</v>
       </c>
@@ -3902,7 +3936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" ht="17.25" customHeight="1">
       <c r="A142" s="7">
         <v>141</v>
       </c>
@@ -3925,7 +3959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" ht="17.25" customHeight="1">
       <c r="A143" s="4">
         <v>142</v>
       </c>
@@ -3948,7 +3982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" ht="17.25" customHeight="1">
       <c r="A144" s="7">
         <v>143</v>
       </c>
@@ -3971,7 +4005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" ht="17.25" customHeight="1">
       <c r="A145" s="4">
         <v>144</v>
       </c>
@@ -3994,7 +4028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" ht="17.25" customHeight="1">
       <c r="A146" s="7">
         <v>145</v>
       </c>
@@ -4017,7 +4051,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" ht="17.25" customHeight="1">
       <c r="A147" s="4">
         <v>146</v>
       </c>
@@ -4040,7 +4074,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" ht="17.25" customHeight="1">
       <c r="A148" s="7">
         <v>147</v>
       </c>
@@ -4063,7 +4097,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" ht="17.25" customHeight="1">
       <c r="A149" s="4">
         <v>148</v>
       </c>
@@ -4086,7 +4120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" ht="17.25" customHeight="1">
       <c r="A150" s="7">
         <v>149</v>
       </c>
@@ -4109,7 +4143,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" ht="17.25" customHeight="1">
       <c r="A151" s="4">
         <v>150</v>
       </c>
@@ -4132,7 +4166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" ht="17.25" customHeight="1">
       <c r="A152" s="7">
         <v>151</v>
       </c>
@@ -4155,7 +4189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" ht="17.25" customHeight="1">
       <c r="A153" s="4">
         <v>152</v>
       </c>
@@ -4178,7 +4212,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" ht="17.25" customHeight="1">
       <c r="A154" s="7">
         <v>153</v>
       </c>
@@ -4201,7 +4235,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" ht="17.25" customHeight="1">
       <c r="A155" s="4">
         <v>154</v>
       </c>
@@ -4224,7 +4258,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" ht="17.25" customHeight="1">
       <c r="A156" s="7">
         <v>155</v>
       </c>
@@ -4247,7 +4281,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" ht="17.25" customHeight="1">
       <c r="A157" s="4">
         <v>156</v>
       </c>
@@ -4270,7 +4304,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" ht="17.25" customHeight="1">
       <c r="A158" s="7">
         <v>157</v>
       </c>
@@ -4293,7 +4327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" ht="17.25" customHeight="1">
       <c r="A159" s="4">
         <v>158</v>
       </c>
@@ -4316,7 +4350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" ht="17.25" customHeight="1">
       <c r="A160" s="7">
         <v>159</v>
       </c>
@@ -4339,7 +4373,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A161" s="4">
         <v>160</v>
       </c>
@@ -4362,7 +4396,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" ht="17.25" customHeight="1">
       <c r="A162" s="7">
         <v>161</v>
       </c>
@@ -4385,7 +4419,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" ht="17.25" customHeight="1">
       <c r="A163" s="4">
         <v>162</v>
       </c>
@@ -4408,7 +4442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" ht="17.25" customHeight="1">
       <c r="A164" s="7">
         <v>163</v>
       </c>
@@ -4431,7 +4465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" ht="17.25" customHeight="1">
       <c r="A165" s="4">
         <v>164</v>
       </c>
@@ -4454,7 +4488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" ht="17.25" customHeight="1">
       <c r="A166" s="7">
         <v>165</v>
       </c>
@@ -4477,7 +4511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" ht="17.25" customHeight="1">
       <c r="A167" s="4">
         <v>166</v>
       </c>
@@ -4500,7 +4534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" ht="17.25" customHeight="1">
       <c r="A168" s="7">
         <v>167</v>
       </c>
@@ -4523,7 +4557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" ht="17.25" customHeight="1">
       <c r="A169" s="4">
         <v>168</v>
       </c>
@@ -4546,7 +4580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" ht="17.25" customHeight="1">
       <c r="A170" s="7">
         <v>169</v>
       </c>
@@ -4569,7 +4603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" ht="17.25" customHeight="1">
       <c r="A171" s="4">
         <v>170</v>
       </c>
@@ -4592,7 +4626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" ht="17.25" customHeight="1">
       <c r="A172" s="7">
         <v>171</v>
       </c>
@@ -4615,7 +4649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" ht="17.25" customHeight="1">
       <c r="A173" s="4">
         <v>172</v>
       </c>
@@ -4638,7 +4672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" ht="17.25" customHeight="1">
       <c r="A174" s="7">
         <v>173</v>
       </c>
@@ -4661,7 +4695,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" ht="17.25" customHeight="1">
       <c r="A175" s="4">
         <v>174</v>
       </c>
@@ -4684,7 +4718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" ht="17.25" customHeight="1">
       <c r="A176" s="7">
         <v>175</v>
       </c>
@@ -4707,7 +4741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" ht="17.25" customHeight="1">
       <c r="A177" s="4">
         <v>176</v>
       </c>
@@ -4730,7 +4764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" ht="17.25" customHeight="1">
       <c r="A178" s="7">
         <v>177</v>
       </c>
@@ -4753,7 +4787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" ht="17.25" customHeight="1">
       <c r="A179" s="4">
         <v>178</v>
       </c>
@@ -4776,7 +4810,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" ht="17.25" customHeight="1">
       <c r="A180" s="7">
         <v>179</v>
       </c>
@@ -4799,7 +4833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A181" s="4">
         <v>180</v>
       </c>
@@ -4822,7 +4856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" ht="17.25" customHeight="1">
       <c r="A182" s="7">
         <v>181</v>
       </c>
@@ -4845,7 +4879,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" ht="17.25" customHeight="1">
       <c r="A183" s="4">
         <v>182</v>
       </c>
@@ -4868,7 +4902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" ht="17.25" customHeight="1">
       <c r="A184" s="7">
         <v>183</v>
       </c>
@@ -4881,7 +4915,7 @@
       <c r="F184" s="5"/>
       <c r="G184" s="6"/>
     </row>
-    <row r="185" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" ht="17.25" customHeight="1">
       <c r="A185" s="4">
         <v>184</v>
       </c>
@@ -4894,7 +4928,7 @@
       <c r="F185" s="5"/>
       <c r="G185" s="6"/>
     </row>
-    <row r="186" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" ht="17.25" customHeight="1">
       <c r="A186" s="7">
         <v>185</v>
       </c>
@@ -4907,7 +4941,7 @@
       <c r="F186" s="5"/>
       <c r="G186" s="6"/>
     </row>
-    <row r="187" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" ht="17.25" customHeight="1">
       <c r="A187" s="4">
         <v>186</v>
       </c>
@@ -4920,7 +4954,7 @@
       <c r="F187" s="5"/>
       <c r="G187" s="6"/>
     </row>
-    <row r="188" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" ht="17.25" customHeight="1">
       <c r="A188" s="7">
         <v>187</v>
       </c>
@@ -4933,7 +4967,7 @@
       <c r="F188" s="5"/>
       <c r="G188" s="6"/>
     </row>
-    <row r="189" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" ht="17.25" customHeight="1">
       <c r="A189" s="4">
         <v>188</v>
       </c>
@@ -4946,7 +4980,7 @@
       <c r="F189" s="5"/>
       <c r="G189" s="6"/>
     </row>
-    <row r="190" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" ht="17.25" customHeight="1">
       <c r="A190" s="7">
         <v>189</v>
       </c>
@@ -4959,7 +4993,7 @@
       <c r="F190" s="5"/>
       <c r="G190" s="6"/>
     </row>
-    <row r="191" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" ht="17.25" customHeight="1">
       <c r="A191" s="4">
         <v>190</v>
       </c>
@@ -4972,7 +5006,7 @@
       <c r="F191" s="5"/>
       <c r="G191" s="6"/>
     </row>
-    <row r="192" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" ht="17.25" customHeight="1">
       <c r="A192" s="7">
         <v>191</v>
       </c>
@@ -4985,7 +5019,7 @@
       <c r="F192" s="5"/>
       <c r="G192" s="6"/>
     </row>
-    <row r="193" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" ht="17.25" customHeight="1">
       <c r="A193" s="4">
         <v>192</v>
       </c>
@@ -4998,7 +5032,7 @@
       <c r="F193" s="5"/>
       <c r="G193" s="6"/>
     </row>
-    <row r="194" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" ht="17.25" customHeight="1">
       <c r="A194" s="7">
         <v>193</v>
       </c>
@@ -5011,7 +5045,7 @@
       <c r="F194" s="5"/>
       <c r="G194" s="6"/>
     </row>
-    <row r="195" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" ht="17.25" customHeight="1">
       <c r="A195" s="4">
         <v>194</v>
       </c>
@@ -5024,7 +5058,7 @@
       <c r="F195" s="5"/>
       <c r="G195" s="6"/>
     </row>
-    <row r="196" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" ht="17.25" customHeight="1">
       <c r="A196" s="7">
         <v>195</v>
       </c>
@@ -5037,7 +5071,7 @@
       <c r="F196" s="5"/>
       <c r="G196" s="6"/>
     </row>
-    <row r="197" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" ht="17.25" customHeight="1">
       <c r="A197" s="4">
         <v>196</v>
       </c>
@@ -5050,7 +5084,7 @@
       <c r="F197" s="5"/>
       <c r="G197" s="6"/>
     </row>
-    <row r="198" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" ht="17.25" customHeight="1">
       <c r="A198" s="7">
         <v>197</v>
       </c>
@@ -5063,7 +5097,7 @@
       <c r="F198" s="5"/>
       <c r="G198" s="6"/>
     </row>
-    <row r="199" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" ht="17.25" customHeight="1">
       <c r="A199" s="4">
         <v>198</v>
       </c>
@@ -5076,7 +5110,7 @@
       <c r="F199" s="5"/>
       <c r="G199" s="6"/>
     </row>
-    <row r="200" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" ht="17.25" customHeight="1">
       <c r="A200" s="7">
         <v>199</v>
       </c>
@@ -5089,7 +5123,7 @@
       <c r="F200" s="5"/>
       <c r="G200" s="6"/>
     </row>
-    <row r="201" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A201" s="4">
         <v>200</v>
       </c>
@@ -5102,7 +5136,7 @@
       <c r="F201" s="5"/>
       <c r="G201" s="6"/>
     </row>
-    <row r="202" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" ht="17.25" customHeight="1">
       <c r="A202" s="18">
         <v>201</v>
       </c>
@@ -5125,7 +5159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A203" s="4">
         <v>202</v>
       </c>
@@ -5141,157 +5175,273 @@
       <c r="E203" s="12">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F203" s="5"/>
-      <c r="G203" s="6"/>
-    </row>
-    <row r="204" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="7">
+      <c r="F203" s="5">
+        <v>2</v>
+      </c>
+      <c r="G203" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A204" s="25">
         <v>203</v>
       </c>
-      <c r="B204" s="5"/>
-      <c r="C204" s="5">
-        <v>3</v>
-      </c>
-      <c r="D204" s="9"/>
-      <c r="E204" s="5"/>
-      <c r="F204" s="5"/>
-      <c r="G204" s="6"/>
-    </row>
-    <row r="205" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B204" s="25">
+        <v>4</v>
+      </c>
+      <c r="C204" s="25">
+        <v>3</v>
+      </c>
+      <c r="D204" s="26">
+        <v>42067</v>
+      </c>
+      <c r="E204" s="27">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="F204" s="25">
+        <v>2</v>
+      </c>
+      <c r="G204" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="17.25" customHeight="1" thickTop="1">
       <c r="A205" s="4">
         <v>204</v>
       </c>
-      <c r="B205" s="5"/>
+      <c r="B205" s="5">
+        <v>4</v>
+      </c>
       <c r="C205" s="5">
         <v>4</v>
       </c>
-      <c r="D205" s="9"/>
-      <c r="E205" s="12"/>
-      <c r="F205" s="5"/>
-      <c r="G205" s="6"/>
-    </row>
-    <row r="206" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D205" s="9">
+        <v>42068</v>
+      </c>
+      <c r="E205" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F205" s="5">
+        <v>1</v>
+      </c>
+      <c r="G205" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="17.25" customHeight="1">
       <c r="A206" s="7">
         <v>205</v>
       </c>
-      <c r="B206" s="5"/>
+      <c r="B206" s="5">
+        <v>4</v>
+      </c>
       <c r="C206" s="5">
         <v>1</v>
       </c>
-      <c r="D206" s="9"/>
-      <c r="E206" s="12"/>
-      <c r="F206" s="5"/>
-      <c r="G206" s="6"/>
-    </row>
-    <row r="207" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D206" s="9">
+        <v>42074</v>
+      </c>
+      <c r="E206" s="12">
+        <v>0.125</v>
+      </c>
+      <c r="F206" s="5">
+        <v>2</v>
+      </c>
+      <c r="G206" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="17.25" customHeight="1">
       <c r="A207" s="4">
         <v>206</v>
       </c>
-      <c r="B207" s="5"/>
+      <c r="B207" s="5">
+        <v>2</v>
+      </c>
       <c r="C207" s="5">
         <v>2</v>
       </c>
-      <c r="D207" s="9"/>
-      <c r="E207" s="12"/>
-      <c r="F207" s="5"/>
-      <c r="G207" s="6"/>
-    </row>
-    <row r="208" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D207" s="9">
+        <v>42074</v>
+      </c>
+      <c r="E207" s="12">
+        <v>0.125</v>
+      </c>
+      <c r="F207" s="5">
+        <v>2</v>
+      </c>
+      <c r="G207" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="17.25" customHeight="1">
       <c r="A208" s="7">
         <v>207</v>
       </c>
-      <c r="B208" s="5"/>
+      <c r="B208" s="5">
+        <v>2</v>
+      </c>
       <c r="C208" s="5">
         <v>3</v>
       </c>
-      <c r="D208" s="9"/>
-      <c r="E208" s="12"/>
-      <c r="F208" s="5"/>
-      <c r="G208" s="6"/>
-    </row>
-    <row r="209" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D208" s="9">
+        <v>42074</v>
+      </c>
+      <c r="E208" s="12">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F208" s="5">
+        <v>2</v>
+      </c>
+      <c r="G208" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="17.25" customHeight="1">
       <c r="A209" s="4">
         <v>208</v>
       </c>
-      <c r="B209" s="5"/>
+      <c r="B209" s="5">
+        <v>4</v>
+      </c>
       <c r="C209" s="5">
         <v>4</v>
       </c>
-      <c r="D209" s="9"/>
-      <c r="E209" s="12"/>
-      <c r="F209" s="5"/>
-      <c r="G209" s="6"/>
-    </row>
-    <row r="210" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D209" s="9">
+        <v>42074</v>
+      </c>
+      <c r="E209" s="12">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F209" s="5">
+        <v>2</v>
+      </c>
+      <c r="G209" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="17.25" customHeight="1">
       <c r="A210" s="7">
         <v>209</v>
       </c>
-      <c r="B210" s="5"/>
+      <c r="B210" s="5">
+        <v>2</v>
+      </c>
       <c r="C210" s="5">
         <v>1</v>
       </c>
-      <c r="D210" s="9"/>
-      <c r="E210" s="12"/>
-      <c r="F210" s="5"/>
-      <c r="G210" s="6"/>
-    </row>
-    <row r="211" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D210" s="9">
+        <v>42074</v>
+      </c>
+      <c r="E210" s="12">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="F210" s="5">
+        <v>2</v>
+      </c>
+      <c r="G210" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="17.25" customHeight="1">
       <c r="A211" s="4">
         <v>210</v>
       </c>
-      <c r="B211" s="5"/>
+      <c r="B211" s="5">
+        <v>4</v>
+      </c>
       <c r="C211" s="5">
         <v>2</v>
       </c>
-      <c r="D211" s="9"/>
-      <c r="E211" s="5"/>
-      <c r="F211" s="5"/>
-      <c r="G211" s="6"/>
-    </row>
-    <row r="212" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D211" s="9">
+        <v>42074</v>
+      </c>
+      <c r="E211" s="12">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="F211" s="5">
+        <v>2</v>
+      </c>
+      <c r="G211" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="17.25" customHeight="1">
       <c r="A212" s="7">
         <v>211</v>
       </c>
-      <c r="B212" s="5"/>
+      <c r="B212" s="5">
+        <v>4</v>
+      </c>
       <c r="C212" s="5">
         <v>3</v>
       </c>
-      <c r="D212" s="9"/>
-      <c r="E212" s="5"/>
-      <c r="F212" s="5"/>
-      <c r="G212" s="6"/>
-    </row>
-    <row r="213" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D212" s="9">
+        <v>42075</v>
+      </c>
+      <c r="E212" s="12">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F212" s="5">
+        <v>2</v>
+      </c>
+      <c r="G212" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="17.25" customHeight="1">
       <c r="A213" s="4">
         <v>212</v>
       </c>
-      <c r="B213" s="5"/>
+      <c r="B213" s="5">
+        <v>2</v>
+      </c>
       <c r="C213" s="5">
         <v>4</v>
       </c>
-      <c r="D213" s="9"/>
-      <c r="E213" s="5"/>
-      <c r="F213" s="5"/>
-      <c r="G213" s="6"/>
-    </row>
-    <row r="214" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D213" s="9">
+        <v>42075</v>
+      </c>
+      <c r="E213" s="5">
+        <v>11</v>
+      </c>
+      <c r="F213" s="5">
+        <v>2</v>
+      </c>
+      <c r="G213" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="17.25" customHeight="1">
       <c r="A214" s="7">
         <v>213</v>
       </c>
-      <c r="B214" s="5"/>
+      <c r="B214" s="5">
+        <v>2</v>
+      </c>
       <c r="C214" s="5">
-        <v>1</v>
-      </c>
-      <c r="D214" s="9"/>
-      <c r="E214" s="5"/>
-      <c r="F214" s="5"/>
-      <c r="G214" s="6"/>
-    </row>
-    <row r="215" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D214" s="9">
+        <v>42080</v>
+      </c>
+      <c r="E214" s="12">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F214" s="5">
+        <v>1</v>
+      </c>
+      <c r="G214" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="17.25" customHeight="1">
       <c r="A215" s="4">
         <v>214</v>
       </c>
-      <c r="B215" s="5"/>
+      <c r="B215" s="5">
+        <v>4</v>
+      </c>
       <c r="C215" s="5">
         <v>2</v>
       </c>
@@ -5300,7 +5450,7 @@
       <c r="F215" s="5"/>
       <c r="G215" s="6"/>
     </row>
-    <row r="216" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" ht="17.25" customHeight="1">
       <c r="A216" s="7">
         <v>215</v>
       </c>
@@ -5313,7 +5463,7 @@
       <c r="F216" s="5"/>
       <c r="G216" s="6"/>
     </row>
-    <row r="217" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" ht="17.25" customHeight="1">
       <c r="A217" s="4">
         <v>216</v>
       </c>
@@ -5326,7 +5476,7 @@
       <c r="F217" s="5"/>
       <c r="G217" s="6"/>
     </row>
-    <row r="218" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" ht="17.25" customHeight="1">
       <c r="A218" s="7">
         <v>217</v>
       </c>
@@ -5339,7 +5489,7 @@
       <c r="F218" s="5"/>
       <c r="G218" s="6"/>
     </row>
-    <row r="219" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" ht="17.25" customHeight="1">
       <c r="A219" s="4">
         <v>218</v>
       </c>
@@ -5352,7 +5502,7 @@
       <c r="F219" s="5"/>
       <c r="G219" s="6"/>
     </row>
-    <row r="220" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" ht="17.25" customHeight="1">
       <c r="A220" s="7">
         <v>219</v>
       </c>
@@ -5365,7 +5515,7 @@
       <c r="F220" s="5"/>
       <c r="G220" s="6"/>
     </row>
-    <row r="221" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A221" s="4">
         <v>220</v>
       </c>
@@ -5378,7 +5528,7 @@
       <c r="F221" s="5"/>
       <c r="G221" s="6"/>
     </row>
-    <row r="222" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" ht="17.25" customHeight="1">
       <c r="A222" s="7">
         <v>221</v>
       </c>
@@ -5391,7 +5541,7 @@
       <c r="F222" s="5"/>
       <c r="G222" s="6"/>
     </row>
-    <row r="223" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" ht="17.25" customHeight="1">
       <c r="A223" s="4">
         <v>222</v>
       </c>
@@ -5404,7 +5554,7 @@
       <c r="F223" s="5"/>
       <c r="G223" s="6"/>
     </row>
-    <row r="224" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" ht="17.25" customHeight="1">
       <c r="A224" s="7">
         <v>223</v>
       </c>
@@ -5417,7 +5567,7 @@
       <c r="F224" s="5"/>
       <c r="G224" s="6"/>
     </row>
-    <row r="225" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" ht="17.25" customHeight="1">
       <c r="A225" s="4">
         <v>224</v>
       </c>
@@ -5430,7 +5580,7 @@
       <c r="F225" s="5"/>
       <c r="G225" s="6"/>
     </row>
-    <row r="226" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" ht="17.25" customHeight="1">
       <c r="A226" s="7">
         <v>225</v>
       </c>
@@ -5443,7 +5593,7 @@
       <c r="F226" s="5"/>
       <c r="G226" s="6"/>
     </row>
-    <row r="227" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" ht="17.25" customHeight="1">
       <c r="A227" s="4">
         <v>226</v>
       </c>
@@ -5456,7 +5606,7 @@
       <c r="F227" s="5"/>
       <c r="G227" s="6"/>
     </row>
-    <row r="228" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" ht="17.25" customHeight="1">
       <c r="A228" s="7">
         <v>227</v>
       </c>
@@ -5469,7 +5619,7 @@
       <c r="F228" s="5"/>
       <c r="G228" s="6"/>
     </row>
-    <row r="229" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" ht="17.25" customHeight="1">
       <c r="A229" s="4">
         <v>228</v>
       </c>
@@ -5482,7 +5632,7 @@
       <c r="F229" s="5"/>
       <c r="G229" s="6"/>
     </row>
-    <row r="230" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" ht="17.25" customHeight="1">
       <c r="A230" s="7">
         <v>229</v>
       </c>
@@ -5495,7 +5645,7 @@
       <c r="F230" s="5"/>
       <c r="G230" s="6"/>
     </row>
-    <row r="231" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" ht="17.25" customHeight="1">
       <c r="A231" s="4">
         <v>230</v>
       </c>
@@ -5508,7 +5658,7 @@
       <c r="F231" s="5"/>
       <c r="G231" s="6"/>
     </row>
-    <row r="232" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" ht="17.25" customHeight="1">
       <c r="A232" s="7">
         <v>231</v>
       </c>
@@ -5521,7 +5671,7 @@
       <c r="F232" s="5"/>
       <c r="G232" s="6"/>
     </row>
-    <row r="233" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" ht="17.25" customHeight="1">
       <c r="A233" s="4">
         <v>232</v>
       </c>
@@ -5534,7 +5684,7 @@
       <c r="F233" s="5"/>
       <c r="G233" s="6"/>
     </row>
-    <row r="234" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" ht="17.25" customHeight="1">
       <c r="A234" s="7">
         <v>233</v>
       </c>
@@ -5547,7 +5697,7 @@
       <c r="F234" s="5"/>
       <c r="G234" s="6"/>
     </row>
-    <row r="235" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" ht="17.25" customHeight="1">
       <c r="A235" s="4">
         <v>234</v>
       </c>
@@ -5560,7 +5710,7 @@
       <c r="F235" s="5"/>
       <c r="G235" s="6"/>
     </row>
-    <row r="236" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" ht="17.25" customHeight="1">
       <c r="A236" s="7">
         <v>235</v>
       </c>
@@ -5573,7 +5723,7 @@
       <c r="F236" s="5"/>
       <c r="G236" s="6"/>
     </row>
-    <row r="237" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" ht="17.25" customHeight="1">
       <c r="A237" s="4">
         <v>236</v>
       </c>
@@ -5586,7 +5736,7 @@
       <c r="F237" s="5"/>
       <c r="G237" s="6"/>
     </row>
-    <row r="238" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" ht="17.25" customHeight="1">
       <c r="A238" s="7">
         <v>237</v>
       </c>
@@ -5599,7 +5749,7 @@
       <c r="F238" s="5"/>
       <c r="G238" s="6"/>
     </row>
-    <row r="239" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" ht="17.25" customHeight="1">
       <c r="A239" s="4">
         <v>238</v>
       </c>
@@ -5612,7 +5762,7 @@
       <c r="F239" s="5"/>
       <c r="G239" s="6"/>
     </row>
-    <row r="240" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" ht="17.25" customHeight="1">
       <c r="A240" s="7">
         <v>239</v>
       </c>
@@ -5625,7 +5775,7 @@
       <c r="F240" s="5"/>
       <c r="G240" s="6"/>
     </row>
-    <row r="241" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" ht="17.25" customHeight="1">
       <c r="A241" s="4">
         <v>240</v>
       </c>
@@ -5638,7 +5788,7 @@
       <c r="F241" s="19"/>
       <c r="G241" s="20"/>
     </row>
-    <row r="242" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" ht="17.25" customHeight="1">
       <c r="A242" s="21">
         <v>241</v>
       </c>
@@ -5651,7 +5801,7 @@
       <c r="F242" s="23"/>
       <c r="G242" s="23"/>
     </row>
-    <row r="243" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" ht="17.25" customHeight="1">
       <c r="A243" s="22">
         <v>242</v>
       </c>
@@ -5664,7 +5814,7 @@
       <c r="F243" s="23"/>
       <c r="G243" s="23"/>
     </row>
-    <row r="244" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" ht="17.25" customHeight="1">
       <c r="A244" s="21">
         <v>243</v>
       </c>
@@ -5677,7 +5827,7 @@
       <c r="F244" s="23"/>
       <c r="G244" s="23"/>
     </row>
-    <row r="245" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" ht="17.25" customHeight="1">
       <c r="A245" s="22">
         <v>244</v>
       </c>
@@ -5690,7 +5840,7 @@
       <c r="F245" s="23"/>
       <c r="G245" s="23"/>
     </row>
-    <row r="246" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A246" s="21">
         <v>245</v>
       </c>
@@ -5703,7 +5853,7 @@
       <c r="F246" s="23"/>
       <c r="G246" s="23"/>
     </row>
-    <row r="247" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" ht="17.25" customHeight="1">
       <c r="A247" s="18">
         <v>246</v>
       </c>
@@ -5716,7 +5866,7 @@
       <c r="F247" s="2"/>
       <c r="G247" s="3"/>
     </row>
-    <row r="248" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" ht="17.25" customHeight="1">
       <c r="A248" s="4">
         <v>247</v>
       </c>
@@ -5729,7 +5879,7 @@
       <c r="F248" s="5"/>
       <c r="G248" s="6"/>
     </row>
-    <row r="249" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" ht="17.25" customHeight="1">
       <c r="A249" s="7">
         <v>248</v>
       </c>
@@ -5742,7 +5892,7 @@
       <c r="F249" s="5"/>
       <c r="G249" s="6"/>
     </row>
-    <row r="250" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" ht="17.25" customHeight="1">
       <c r="A250" s="4">
         <v>249</v>
       </c>
@@ -5755,7 +5905,7 @@
       <c r="F250" s="5"/>
       <c r="G250" s="6"/>
     </row>
-    <row r="251" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" ht="17.25" customHeight="1">
       <c r="A251" s="7">
         <v>250</v>
       </c>
@@ -5768,7 +5918,7 @@
       <c r="F251" s="5"/>
       <c r="G251" s="6"/>
     </row>
-    <row r="252" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" ht="17.25" customHeight="1">
       <c r="A252" s="4">
         <v>251</v>
       </c>
@@ -5781,7 +5931,7 @@
       <c r="F252" s="5"/>
       <c r="G252" s="6"/>
     </row>
-    <row r="253" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" ht="17.25" customHeight="1">
       <c r="A253" s="7">
         <v>252</v>
       </c>
@@ -5794,7 +5944,7 @@
       <c r="F253" s="5"/>
       <c r="G253" s="6"/>
     </row>
-    <row r="254" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" ht="17.25" customHeight="1">
       <c r="A254" s="4">
         <v>253</v>
       </c>
@@ -5807,7 +5957,7 @@
       <c r="F254" s="5"/>
       <c r="G254" s="6"/>
     </row>
-    <row r="255" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" ht="17.25" customHeight="1">
       <c r="A255" s="7">
         <v>254</v>
       </c>
@@ -5820,7 +5970,7 @@
       <c r="F255" s="5"/>
       <c r="G255" s="6"/>
     </row>
-    <row r="256" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" ht="17.25" customHeight="1">
       <c r="A256" s="4">
         <v>255</v>
       </c>
@@ -5833,7 +5983,7 @@
       <c r="F256" s="5"/>
       <c r="G256" s="6"/>
     </row>
-    <row r="257" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" ht="17.25" customHeight="1">
       <c r="A257" s="7">
         <v>256</v>
       </c>
@@ -5846,7 +5996,7 @@
       <c r="F257" s="5"/>
       <c r="G257" s="6"/>
     </row>
-    <row r="258" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" ht="17.25" customHeight="1">
       <c r="A258" s="4">
         <v>257</v>
       </c>
@@ -5859,7 +6009,7 @@
       <c r="F258" s="5"/>
       <c r="G258" s="6"/>
     </row>
-    <row r="259" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" ht="17.25" customHeight="1">
       <c r="A259" s="7">
         <v>258</v>
       </c>
@@ -5872,7 +6022,7 @@
       <c r="F259" s="5"/>
       <c r="G259" s="6"/>
     </row>
-    <row r="260" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" ht="17.25" customHeight="1">
       <c r="A260" s="4">
         <v>259</v>
       </c>
@@ -5885,7 +6035,7 @@
       <c r="F260" s="5"/>
       <c r="G260" s="6"/>
     </row>
-    <row r="261" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" ht="17.25" customHeight="1">
       <c r="A261" s="7">
         <v>260</v>
       </c>
@@ -5898,7 +6048,7 @@
       <c r="F261" s="5"/>
       <c r="G261" s="6"/>
     </row>
-    <row r="262" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" ht="17.25" customHeight="1">
       <c r="A262" s="4">
         <v>261</v>
       </c>
@@ -5911,7 +6061,7 @@
       <c r="F262" s="5"/>
       <c r="G262" s="6"/>
     </row>
-    <row r="263" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" ht="17.25" customHeight="1">
       <c r="A263" s="7">
         <v>262</v>
       </c>
@@ -5924,7 +6074,7 @@
       <c r="F263" s="5"/>
       <c r="G263" s="6"/>
     </row>
-    <row r="264" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" ht="17.25" customHeight="1">
       <c r="A264" s="4">
         <v>263</v>
       </c>
@@ -5937,7 +6087,7 @@
       <c r="F264" s="5"/>
       <c r="G264" s="6"/>
     </row>
-    <row r="265" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" ht="17.25" customHeight="1">
       <c r="A265" s="7">
         <v>264</v>
       </c>
@@ -5950,7 +6100,7 @@
       <c r="F265" s="5"/>
       <c r="G265" s="6"/>
     </row>
-    <row r="266" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A266" s="4">
         <v>265</v>
       </c>
@@ -5963,7 +6113,7 @@
       <c r="F266" s="5"/>
       <c r="G266" s="6"/>
     </row>
-    <row r="267" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" ht="17.25" customHeight="1">
       <c r="A267" s="7">
         <v>266</v>
       </c>
@@ -5976,7 +6126,7 @@
       <c r="F267" s="5"/>
       <c r="G267" s="6"/>
     </row>
-    <row r="268" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" ht="17.25" customHeight="1">
       <c r="A268" s="4">
         <v>267</v>
       </c>
@@ -5989,7 +6139,7 @@
       <c r="F268" s="5"/>
       <c r="G268" s="6"/>
     </row>
-    <row r="269" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" ht="17.25" customHeight="1">
       <c r="A269" s="7">
         <v>268</v>
       </c>
@@ -6002,7 +6152,7 @@
       <c r="F269" s="5"/>
       <c r="G269" s="6"/>
     </row>
-    <row r="270" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" ht="17.25" customHeight="1">
       <c r="A270" s="4">
         <v>269</v>
       </c>
@@ -6015,7 +6165,7 @@
       <c r="F270" s="5"/>
       <c r="G270" s="6"/>
     </row>
-    <row r="271" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" ht="17.25" customHeight="1">
       <c r="A271" s="7">
         <v>270</v>
       </c>
@@ -6028,7 +6178,7 @@
       <c r="F271" s="5"/>
       <c r="G271" s="6"/>
     </row>
-    <row r="272" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" ht="17.25" customHeight="1">
       <c r="A272" s="4">
         <v>271</v>
       </c>
@@ -6041,7 +6191,7 @@
       <c r="F272" s="5"/>
       <c r="G272" s="6"/>
     </row>
-    <row r="273" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" ht="17.25" customHeight="1">
       <c r="A273" s="7">
         <v>272</v>
       </c>
@@ -6054,7 +6204,7 @@
       <c r="F273" s="5"/>
       <c r="G273" s="6"/>
     </row>
-    <row r="274" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" ht="17.25" customHeight="1">
       <c r="A274" s="4">
         <v>273</v>
       </c>
@@ -6067,7 +6217,7 @@
       <c r="F274" s="5"/>
       <c r="G274" s="6"/>
     </row>
-    <row r="275" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" ht="17.25" customHeight="1">
       <c r="A275" s="7">
         <v>274</v>
       </c>
@@ -6080,7 +6230,7 @@
       <c r="F275" s="5"/>
       <c r="G275" s="6"/>
     </row>
-    <row r="276" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" ht="17.25" customHeight="1">
       <c r="A276" s="4">
         <v>275</v>
       </c>
@@ -6093,7 +6243,7 @@
       <c r="F276" s="5"/>
       <c r="G276" s="6"/>
     </row>
-    <row r="277" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" ht="17.25" customHeight="1">
       <c r="A277" s="7">
         <v>276</v>
       </c>
@@ -6106,7 +6256,7 @@
       <c r="F277" s="5"/>
       <c r="G277" s="6"/>
     </row>
-    <row r="278" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" ht="17.25" customHeight="1">
       <c r="A278" s="4">
         <v>277</v>
       </c>
@@ -6119,7 +6269,7 @@
       <c r="F278" s="5"/>
       <c r="G278" s="6"/>
     </row>
-    <row r="279" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" ht="17.25" customHeight="1">
       <c r="A279" s="7">
         <v>278</v>
       </c>
@@ -6132,7 +6282,7 @@
       <c r="F279" s="5"/>
       <c r="G279" s="6"/>
     </row>
-    <row r="280" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" ht="17.25" customHeight="1">
       <c r="A280" s="4">
         <v>279</v>
       </c>
@@ -6145,7 +6295,7 @@
       <c r="F280" s="5"/>
       <c r="G280" s="6"/>
     </row>
-    <row r="281" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" ht="17.25" customHeight="1">
       <c r="A281" s="7">
         <v>280</v>
       </c>
@@ -6158,7 +6308,7 @@
       <c r="F281" s="5"/>
       <c r="G281" s="6"/>
     </row>
-    <row r="282" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" ht="17.25" customHeight="1">
       <c r="A282" s="4">
         <v>281</v>
       </c>
@@ -6171,7 +6321,7 @@
       <c r="F282" s="5"/>
       <c r="G282" s="6"/>
     </row>
-    <row r="283" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" ht="17.25" customHeight="1">
       <c r="A283" s="7">
         <v>282</v>
       </c>
@@ -6184,7 +6334,7 @@
       <c r="F283" s="5"/>
       <c r="G283" s="6"/>
     </row>
-    <row r="284" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" ht="17.25" customHeight="1">
       <c r="A284" s="4">
         <v>283</v>
       </c>
@@ -6197,7 +6347,7 @@
       <c r="F284" s="5"/>
       <c r="G284" s="6"/>
     </row>
-    <row r="285" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" ht="17.25" customHeight="1">
       <c r="A285" s="7">
         <v>284</v>
       </c>
@@ -6210,7 +6360,7 @@
       <c r="F285" s="5"/>
       <c r="G285" s="6"/>
     </row>
-    <row r="286" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" ht="17.25" customHeight="1">
       <c r="A286" s="4">
         <v>285</v>
       </c>
@@ -6223,7 +6373,7 @@
       <c r="F286" s="19"/>
       <c r="G286" s="20"/>
     </row>
-    <row r="287" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" ht="17.25" customHeight="1">
       <c r="A287" s="21">
         <v>286</v>
       </c>
@@ -6236,7 +6386,7 @@
       <c r="F287" s="23"/>
       <c r="G287" s="23"/>
     </row>
-    <row r="288" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" ht="17.25" customHeight="1">
       <c r="A288" s="22">
         <v>287</v>
       </c>
@@ -6249,7 +6399,7 @@
       <c r="F288" s="23"/>
       <c r="G288" s="23"/>
     </row>
-    <row r="289" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" ht="17.25" customHeight="1">
       <c r="A289" s="21">
         <v>288</v>
       </c>
@@ -6262,7 +6412,7 @@
       <c r="F289" s="23"/>
       <c r="G289" s="23"/>
     </row>
-    <row r="290" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" ht="17.25" customHeight="1">
       <c r="A290" s="22">
         <v>289</v>
       </c>
@@ -6275,7 +6425,7 @@
       <c r="F290" s="23"/>
       <c r="G290" s="23"/>
     </row>
-    <row r="291" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A291" s="21">
         <v>290</v>
       </c>
@@ -6288,7 +6438,7 @@
       <c r="F291" s="23"/>
       <c r="G291" s="23"/>
     </row>
-    <row r="292" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" ht="17.25" customHeight="1">
       <c r="A292" s="18">
         <v>291</v>
       </c>
@@ -6301,7 +6451,7 @@
       <c r="F292" s="2"/>
       <c r="G292" s="3"/>
     </row>
-    <row r="293" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" ht="17.25" customHeight="1">
       <c r="A293" s="4">
         <v>292</v>
       </c>
@@ -6314,7 +6464,7 @@
       <c r="F293" s="5"/>
       <c r="G293" s="6"/>
     </row>
-    <row r="294" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" ht="17.25" customHeight="1">
       <c r="A294" s="7">
         <v>293</v>
       </c>
@@ -6327,7 +6477,7 @@
       <c r="F294" s="5"/>
       <c r="G294" s="6"/>
     </row>
-    <row r="295" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" ht="17.25" customHeight="1">
       <c r="A295" s="4">
         <v>294</v>
       </c>
@@ -6340,7 +6490,7 @@
       <c r="F295" s="5"/>
       <c r="G295" s="6"/>
     </row>
-    <row r="296" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" ht="17.25" customHeight="1">
       <c r="A296" s="7">
         <v>295</v>
       </c>
@@ -6353,7 +6503,7 @@
       <c r="F296" s="5"/>
       <c r="G296" s="6"/>
     </row>
-    <row r="297" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" ht="17.25" customHeight="1">
       <c r="A297" s="4">
         <v>296</v>
       </c>
@@ -6366,7 +6516,7 @@
       <c r="F297" s="5"/>
       <c r="G297" s="6"/>
     </row>
-    <row r="298" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" ht="17.25" customHeight="1">
       <c r="A298" s="7">
         <v>297</v>
       </c>
@@ -6379,7 +6529,7 @@
       <c r="F298" s="5"/>
       <c r="G298" s="6"/>
     </row>
-    <row r="299" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" ht="17.25" customHeight="1">
       <c r="A299" s="4">
         <v>298</v>
       </c>
@@ -6392,7 +6542,7 @@
       <c r="F299" s="5"/>
       <c r="G299" s="6"/>
     </row>
-    <row r="300" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" ht="17.25" customHeight="1">
       <c r="A300" s="7">
         <v>299</v>
       </c>
@@ -6405,7 +6555,7 @@
       <c r="F300" s="5"/>
       <c r="G300" s="6"/>
     </row>
-    <row r="301" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" ht="17.25" customHeight="1">
       <c r="A301" s="4">
         <v>300</v>
       </c>
@@ -6418,7 +6568,7 @@
       <c r="F301" s="5"/>
       <c r="G301" s="6"/>
     </row>
-    <row r="302" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" ht="17.25" customHeight="1">
       <c r="A302" s="7">
         <v>301</v>
       </c>
@@ -6431,7 +6581,7 @@
       <c r="F302" s="5"/>
       <c r="G302" s="6"/>
     </row>
-    <row r="303" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" ht="17.25" customHeight="1">
       <c r="A303" s="4">
         <v>302</v>
       </c>
@@ -6444,7 +6594,7 @@
       <c r="F303" s="5"/>
       <c r="G303" s="6"/>
     </row>
-    <row r="304" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" ht="17.25" customHeight="1">
       <c r="A304" s="7">
         <v>303</v>
       </c>
@@ -6457,7 +6607,7 @@
       <c r="F304" s="5"/>
       <c r="G304" s="6"/>
     </row>
-    <row r="305" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" ht="17.25" customHeight="1">
       <c r="A305" s="4">
         <v>304</v>
       </c>
@@ -6470,7 +6620,7 @@
       <c r="F305" s="5"/>
       <c r="G305" s="6"/>
     </row>
-    <row r="306" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" ht="17.25" customHeight="1">
       <c r="A306" s="7">
         <v>305</v>
       </c>
@@ -6483,7 +6633,7 @@
       <c r="F306" s="5"/>
       <c r="G306" s="6"/>
     </row>
-    <row r="307" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" ht="17.25" customHeight="1">
       <c r="A307" s="4">
         <v>306</v>
       </c>
@@ -6496,7 +6646,7 @@
       <c r="F307" s="5"/>
       <c r="G307" s="6"/>
     </row>
-    <row r="308" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" ht="17.25" customHeight="1">
       <c r="A308" s="7">
         <v>307</v>
       </c>
@@ -6509,7 +6659,7 @@
       <c r="F308" s="5"/>
       <c r="G308" s="6"/>
     </row>
-    <row r="309" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" ht="17.25" customHeight="1">
       <c r="A309" s="4">
         <v>308</v>
       </c>
@@ -6522,7 +6672,7 @@
       <c r="F309" s="5"/>
       <c r="G309" s="6"/>
     </row>
-    <row r="310" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" ht="17.25" customHeight="1">
       <c r="A310" s="7">
         <v>309</v>
       </c>
@@ -6535,7 +6685,7 @@
       <c r="F310" s="5"/>
       <c r="G310" s="6"/>
     </row>
-    <row r="311" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A311" s="4">
         <v>310</v>
       </c>
@@ -6548,7 +6698,7 @@
       <c r="F311" s="5"/>
       <c r="G311" s="6"/>
     </row>
-    <row r="312" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" ht="17.25" customHeight="1">
       <c r="A312" s="7">
         <v>311</v>
       </c>
@@ -6561,7 +6711,7 @@
       <c r="F312" s="5"/>
       <c r="G312" s="6"/>
     </row>
-    <row r="313" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" ht="17.25" customHeight="1">
       <c r="A313" s="4">
         <v>312</v>
       </c>
@@ -6574,7 +6724,7 @@
       <c r="F313" s="5"/>
       <c r="G313" s="6"/>
     </row>
-    <row r="314" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" ht="17.25" customHeight="1">
       <c r="A314" s="7">
         <v>313</v>
       </c>
@@ -6587,7 +6737,7 @@
       <c r="F314" s="5"/>
       <c r="G314" s="6"/>
     </row>
-    <row r="315" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" ht="17.25" customHeight="1">
       <c r="A315" s="4">
         <v>314</v>
       </c>
@@ -6600,7 +6750,7 @@
       <c r="F315" s="5"/>
       <c r="G315" s="6"/>
     </row>
-    <row r="316" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" ht="17.25" customHeight="1">
       <c r="A316" s="7">
         <v>315</v>
       </c>
@@ -6613,7 +6763,7 @@
       <c r="F316" s="5"/>
       <c r="G316" s="6"/>
     </row>
-    <row r="317" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" ht="17.25" customHeight="1">
       <c r="A317" s="4">
         <v>316</v>
       </c>
@@ -6626,7 +6776,7 @@
       <c r="F317" s="5"/>
       <c r="G317" s="6"/>
     </row>
-    <row r="318" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" ht="17.25" customHeight="1">
       <c r="A318" s="7">
         <v>317</v>
       </c>
@@ -6639,7 +6789,7 @@
       <c r="F318" s="5"/>
       <c r="G318" s="6"/>
     </row>
-    <row r="319" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" ht="17.25" customHeight="1">
       <c r="A319" s="4">
         <v>318</v>
       </c>
@@ -6652,7 +6802,7 @@
       <c r="F319" s="5"/>
       <c r="G319" s="6"/>
     </row>
-    <row r="320" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" ht="17.25" customHeight="1">
       <c r="A320" s="7">
         <v>319</v>
       </c>
@@ -6665,7 +6815,7 @@
       <c r="F320" s="5"/>
       <c r="G320" s="6"/>
     </row>
-    <row r="321" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" ht="17.25" customHeight="1">
       <c r="A321" s="4">
         <v>320</v>
       </c>
@@ -6678,7 +6828,7 @@
       <c r="F321" s="5"/>
       <c r="G321" s="6"/>
     </row>
-    <row r="322" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" ht="17.25" customHeight="1">
       <c r="A322" s="7">
         <v>321</v>
       </c>
@@ -6691,7 +6841,7 @@
       <c r="F322" s="5"/>
       <c r="G322" s="6"/>
     </row>
-    <row r="323" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" ht="17.25" customHeight="1">
       <c r="A323" s="4">
         <v>322</v>
       </c>
@@ -6704,7 +6854,7 @@
       <c r="F323" s="5"/>
       <c r="G323" s="6"/>
     </row>
-    <row r="324" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" ht="17.25" customHeight="1">
       <c r="A324" s="7">
         <v>323</v>
       </c>
@@ -6717,7 +6867,7 @@
       <c r="F324" s="5"/>
       <c r="G324" s="6"/>
     </row>
-    <row r="325" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" ht="17.25" customHeight="1">
       <c r="A325" s="4">
         <v>324</v>
       </c>
@@ -6730,7 +6880,7 @@
       <c r="F325" s="5"/>
       <c r="G325" s="6"/>
     </row>
-    <row r="326" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" ht="17.25" customHeight="1">
       <c r="A326" s="7">
         <v>325</v>
       </c>
@@ -6743,7 +6893,7 @@
       <c r="F326" s="5"/>
       <c r="G326" s="6"/>
     </row>
-    <row r="327" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" ht="17.25" customHeight="1">
       <c r="A327" s="4">
         <v>326</v>
       </c>
@@ -6756,7 +6906,7 @@
       <c r="F327" s="5"/>
       <c r="G327" s="6"/>
     </row>
-    <row r="328" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" ht="17.25" customHeight="1">
       <c r="A328" s="7">
         <v>327</v>
       </c>
@@ -6769,7 +6919,7 @@
       <c r="F328" s="5"/>
       <c r="G328" s="6"/>
     </row>
-    <row r="329" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" ht="17.25" customHeight="1">
       <c r="A329" s="4">
         <v>328</v>
       </c>
@@ -6782,7 +6932,7 @@
       <c r="F329" s="5"/>
       <c r="G329" s="6"/>
     </row>
-    <row r="330" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" ht="17.25" customHeight="1">
       <c r="A330" s="7">
         <v>329</v>
       </c>
@@ -6795,7 +6945,7 @@
       <c r="F330" s="5"/>
       <c r="G330" s="6"/>
     </row>
-    <row r="331" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" ht="17.25" customHeight="1">
       <c r="A331" s="4">
         <v>330</v>
       </c>
@@ -6808,7 +6958,7 @@
       <c r="F331" s="19"/>
       <c r="G331" s="20"/>
     </row>
-    <row r="332" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" ht="17.25" customHeight="1">
       <c r="A332" s="21">
         <v>331</v>
       </c>
@@ -6821,7 +6971,7 @@
       <c r="F332" s="23"/>
       <c r="G332" s="23"/>
     </row>
-    <row r="333" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" ht="17.25" customHeight="1">
       <c r="A333" s="22">
         <v>332</v>
       </c>
@@ -6834,7 +6984,7 @@
       <c r="F333" s="23"/>
       <c r="G333" s="23"/>
     </row>
-    <row r="334" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" ht="17.25" customHeight="1">
       <c r="A334" s="21">
         <v>333</v>
       </c>
@@ -6847,7 +6997,7 @@
       <c r="F334" s="23"/>
       <c r="G334" s="23"/>
     </row>
-    <row r="335" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" ht="17.25" customHeight="1">
       <c r="A335" s="22">
         <v>334</v>
       </c>
@@ -6860,7 +7010,7 @@
       <c r="F335" s="23"/>
       <c r="G335" s="23"/>
     </row>
-    <row r="336" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A336" s="21">
         <v>335</v>
       </c>
@@ -6873,7 +7023,7 @@
       <c r="F336" s="23"/>
       <c r="G336" s="23"/>
     </row>
-    <row r="337" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" ht="17.25" customHeight="1">
       <c r="A337" s="18">
         <v>336</v>
       </c>
@@ -6886,7 +7036,7 @@
       <c r="F337" s="2"/>
       <c r="G337" s="3"/>
     </row>
-    <row r="338" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" ht="17.25" customHeight="1">
       <c r="A338" s="4">
         <v>337</v>
       </c>
@@ -6899,7 +7049,7 @@
       <c r="F338" s="5"/>
       <c r="G338" s="6"/>
     </row>
-    <row r="339" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" ht="17.25" customHeight="1">
       <c r="A339" s="7">
         <v>338</v>
       </c>
@@ -6912,7 +7062,7 @@
       <c r="F339" s="5"/>
       <c r="G339" s="6"/>
     </row>
-    <row r="340" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" ht="17.25" customHeight="1">
       <c r="A340" s="4">
         <v>339</v>
       </c>
@@ -6925,7 +7075,7 @@
       <c r="F340" s="5"/>
       <c r="G340" s="6"/>
     </row>
-    <row r="341" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" ht="17.25" customHeight="1">
       <c r="A341" s="7">
         <v>340</v>
       </c>
@@ -6938,7 +7088,7 @@
       <c r="F341" s="5"/>
       <c r="G341" s="6"/>
     </row>
-    <row r="342" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" ht="17.25" customHeight="1">
       <c r="A342" s="4">
         <v>341</v>
       </c>
@@ -6951,7 +7101,7 @@
       <c r="F342" s="5"/>
       <c r="G342" s="6"/>
     </row>
-    <row r="343" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" ht="17.25" customHeight="1">
       <c r="A343" s="7">
         <v>342</v>
       </c>
@@ -6964,7 +7114,7 @@
       <c r="F343" s="5"/>
       <c r="G343" s="6"/>
     </row>
-    <row r="344" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" ht="17.25" customHeight="1">
       <c r="A344" s="4">
         <v>343</v>
       </c>
@@ -6977,7 +7127,7 @@
       <c r="F344" s="5"/>
       <c r="G344" s="6"/>
     </row>
-    <row r="345" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" ht="17.25" customHeight="1">
       <c r="A345" s="7">
         <v>344</v>
       </c>
@@ -6990,7 +7140,7 @@
       <c r="F345" s="5"/>
       <c r="G345" s="6"/>
     </row>
-    <row r="346" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" ht="17.25" customHeight="1">
       <c r="A346" s="4">
         <v>345</v>
       </c>
@@ -7003,7 +7153,7 @@
       <c r="F346" s="5"/>
       <c r="G346" s="6"/>
     </row>
-    <row r="347" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" ht="17.25" customHeight="1">
       <c r="A347" s="7">
         <v>346</v>
       </c>
@@ -7016,7 +7166,7 @@
       <c r="F347" s="5"/>
       <c r="G347" s="6"/>
     </row>
-    <row r="348" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" ht="17.25" customHeight="1">
       <c r="A348" s="4">
         <v>347</v>
       </c>
@@ -7029,7 +7179,7 @@
       <c r="F348" s="5"/>
       <c r="G348" s="6"/>
     </row>
-    <row r="349" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" ht="17.25" customHeight="1">
       <c r="A349" s="7">
         <v>348</v>
       </c>
@@ -7042,7 +7192,7 @@
       <c r="F349" s="5"/>
       <c r="G349" s="6"/>
     </row>
-    <row r="350" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" ht="17.25" customHeight="1">
       <c r="A350" s="4">
         <v>349</v>
       </c>
@@ -7055,7 +7205,7 @@
       <c r="F350" s="5"/>
       <c r="G350" s="6"/>
     </row>
-    <row r="351" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" ht="17.25" customHeight="1">
       <c r="A351" s="7">
         <v>350</v>
       </c>
@@ -7068,7 +7218,7 @@
       <c r="F351" s="5"/>
       <c r="G351" s="6"/>
     </row>
-    <row r="352" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" ht="17.25" customHeight="1">
       <c r="A352" s="4">
         <v>351</v>
       </c>
@@ -7081,7 +7231,7 @@
       <c r="F352" s="5"/>
       <c r="G352" s="6"/>
     </row>
-    <row r="353" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" ht="17.25" customHeight="1">
       <c r="A353" s="7">
         <v>352</v>
       </c>
@@ -7094,7 +7244,7 @@
       <c r="F353" s="5"/>
       <c r="G353" s="6"/>
     </row>
-    <row r="354" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" ht="17.25" customHeight="1">
       <c r="A354" s="4">
         <v>353</v>
       </c>
@@ -7107,7 +7257,7 @@
       <c r="F354" s="5"/>
       <c r="G354" s="6"/>
     </row>
-    <row r="355" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" ht="17.25" customHeight="1">
       <c r="A355" s="7">
         <v>354</v>
       </c>
@@ -7120,7 +7270,7 @@
       <c r="F355" s="5"/>
       <c r="G355" s="6"/>
     </row>
-    <row r="356" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A356" s="4">
         <v>355</v>
       </c>
@@ -7133,7 +7283,7 @@
       <c r="F356" s="5"/>
       <c r="G356" s="6"/>
     </row>
-    <row r="357" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" ht="17.25" customHeight="1">
       <c r="A357" s="7">
         <v>356</v>
       </c>
@@ -7146,7 +7296,7 @@
       <c r="F357" s="5"/>
       <c r="G357" s="6"/>
     </row>
-    <row r="358" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" ht="17.25" customHeight="1">
       <c r="A358" s="4">
         <v>357</v>
       </c>
@@ -7159,7 +7309,7 @@
       <c r="F358" s="5"/>
       <c r="G358" s="6"/>
     </row>
-    <row r="359" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" ht="17.25" customHeight="1">
       <c r="A359" s="7">
         <v>358</v>
       </c>
@@ -7172,7 +7322,7 @@
       <c r="F359" s="5"/>
       <c r="G359" s="6"/>
     </row>
-    <row r="360" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" ht="17.25" customHeight="1">
       <c r="A360" s="4">
         <v>359</v>
       </c>
@@ -7185,7 +7335,7 @@
       <c r="F360" s="5"/>
       <c r="G360" s="6"/>
     </row>
-    <row r="361" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" ht="17.25" customHeight="1">
       <c r="A361" s="7">
         <v>360</v>
       </c>
@@ -7198,7 +7348,7 @@
       <c r="F361" s="5"/>
       <c r="G361" s="6"/>
     </row>
-    <row r="362" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" ht="17.25" customHeight="1">
       <c r="A362" s="4">
         <v>361</v>
       </c>
@@ -7211,7 +7361,7 @@
       <c r="F362" s="5"/>
       <c r="G362" s="6"/>
     </row>
-    <row r="363" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" ht="17.25" customHeight="1">
       <c r="A363" s="7">
         <v>362</v>
       </c>
@@ -7224,7 +7374,7 @@
       <c r="F363" s="5"/>
       <c r="G363" s="6"/>
     </row>
-    <row r="364" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" ht="17.25" customHeight="1">
       <c r="A364" s="4">
         <v>363</v>
       </c>
@@ -7237,7 +7387,7 @@
       <c r="F364" s="5"/>
       <c r="G364" s="6"/>
     </row>
-    <row r="365" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" ht="17.25" customHeight="1">
       <c r="A365" s="7">
         <v>364</v>
       </c>
@@ -7250,7 +7400,7 @@
       <c r="F365" s="5"/>
       <c r="G365" s="6"/>
     </row>
-    <row r="366" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" ht="17.25" customHeight="1">
       <c r="A366" s="4">
         <v>365</v>
       </c>
@@ -7263,7 +7413,7 @@
       <c r="F366" s="5"/>
       <c r="G366" s="6"/>
     </row>
-    <row r="367" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" ht="17.25" customHeight="1">
       <c r="A367" s="7">
         <v>366</v>
       </c>
@@ -7276,7 +7426,7 @@
       <c r="F367" s="5"/>
       <c r="G367" s="6"/>
     </row>
-    <row r="368" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" ht="17.25" customHeight="1">
       <c r="A368" s="4">
         <v>367</v>
       </c>
@@ -7289,7 +7439,7 @@
       <c r="F368" s="5"/>
       <c r="G368" s="6"/>
     </row>
-    <row r="369" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" ht="17.25" customHeight="1">
       <c r="A369" s="7">
         <v>368</v>
       </c>
@@ -7302,7 +7452,7 @@
       <c r="F369" s="5"/>
       <c r="G369" s="6"/>
     </row>
-    <row r="370" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" ht="17.25" customHeight="1">
       <c r="A370" s="4">
         <v>369</v>
       </c>
@@ -7315,7 +7465,7 @@
       <c r="F370" s="5"/>
       <c r="G370" s="6"/>
     </row>
-    <row r="371" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" ht="17.25" customHeight="1">
       <c r="A371" s="7">
         <v>370</v>
       </c>
@@ -7328,7 +7478,7 @@
       <c r="F371" s="5"/>
       <c r="G371" s="6"/>
     </row>
-    <row r="372" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" ht="17.25" customHeight="1">
       <c r="A372" s="4">
         <v>371</v>
       </c>
@@ -7341,7 +7491,7 @@
       <c r="F372" s="5"/>
       <c r="G372" s="6"/>
     </row>
-    <row r="373" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" ht="17.25" customHeight="1">
       <c r="A373" s="7">
         <v>372</v>
       </c>
@@ -7354,7 +7504,7 @@
       <c r="F373" s="5"/>
       <c r="G373" s="6"/>
     </row>
-    <row r="374" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" ht="17.25" customHeight="1">
       <c r="A374" s="4">
         <v>373</v>
       </c>
@@ -7367,7 +7517,7 @@
       <c r="F374" s="5"/>
       <c r="G374" s="6"/>
     </row>
-    <row r="375" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" ht="17.25" customHeight="1">
       <c r="A375" s="7">
         <v>374</v>
       </c>
@@ -7380,7 +7530,7 @@
       <c r="F375" s="5"/>
       <c r="G375" s="6"/>
     </row>
-    <row r="376" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" ht="17.25" customHeight="1">
       <c r="A376" s="4">
         <v>375</v>
       </c>
@@ -7393,7 +7543,7 @@
       <c r="F376" s="19"/>
       <c r="G376" s="20"/>
     </row>
-    <row r="377" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" ht="17.25" customHeight="1">
       <c r="A377" s="21">
         <v>376</v>
       </c>
@@ -7406,7 +7556,7 @@
       <c r="F377" s="23"/>
       <c r="G377" s="23"/>
     </row>
-    <row r="378" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" ht="17.25" customHeight="1">
       <c r="A378" s="22">
         <v>377</v>
       </c>
@@ -7419,7 +7569,7 @@
       <c r="F378" s="23"/>
       <c r="G378" s="23"/>
     </row>
-    <row r="379" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" ht="17.25" customHeight="1">
       <c r="A379" s="21">
         <v>378</v>
       </c>
@@ -7432,7 +7582,7 @@
       <c r="F379" s="23"/>
       <c r="G379" s="23"/>
     </row>
-    <row r="380" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" ht="17.25" customHeight="1">
       <c r="A380" s="22">
         <v>379</v>
       </c>
@@ -7445,7 +7595,7 @@
       <c r="F380" s="23"/>
       <c r="G380" s="23"/>
     </row>
-    <row r="381" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A381" s="21">
         <v>380</v>
       </c>
@@ -7458,7 +7608,7 @@
       <c r="F381" s="23"/>
       <c r="G381" s="23"/>
     </row>
-    <row r="382" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" ht="17.25" customHeight="1">
       <c r="A382" s="7">
         <v>381</v>
       </c>
@@ -7466,7 +7616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" ht="17.25" customHeight="1">
       <c r="A383" s="4">
         <v>382</v>
       </c>
@@ -7474,7 +7624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="384" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" ht="17.25" customHeight="1">
       <c r="A384" s="7">
         <v>383</v>
       </c>
@@ -7482,7 +7632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" ht="17.25" customHeight="1">
       <c r="A385" s="4">
         <v>384</v>
       </c>
@@ -7490,7 +7640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" ht="17.25" customHeight="1">
       <c r="A386" s="7">
         <v>385</v>
       </c>
@@ -7498,7 +7648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" ht="17.25" customHeight="1">
       <c r="A387" s="4">
         <v>386</v>
       </c>
@@ -7506,7 +7656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" ht="17.25" customHeight="1">
       <c r="A388" s="7">
         <v>387</v>
       </c>
@@ -7514,7 +7664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" ht="17.25" customHeight="1">
       <c r="A389" s="4">
         <v>388</v>
       </c>
@@ -7522,7 +7672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" ht="17.25" customHeight="1">
       <c r="A390" s="7">
         <v>389</v>
       </c>
@@ -7530,7 +7680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" ht="17.25" customHeight="1">
       <c r="A391" s="4">
         <v>390</v>
       </c>
@@ -7538,7 +7688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" ht="17.25" customHeight="1">
       <c r="A392" s="7">
         <v>391</v>
       </c>
@@ -7546,7 +7696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" ht="17.25" customHeight="1">
       <c r="A393" s="4">
         <v>392</v>
       </c>
@@ -7554,7 +7704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" ht="17.25" customHeight="1">
       <c r="A394" s="7">
         <v>393</v>
       </c>
@@ -7562,7 +7712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" ht="17.25" customHeight="1">
       <c r="A395" s="4">
         <v>394</v>
       </c>
@@ -7570,7 +7720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" ht="17.25" customHeight="1">
       <c r="A396" s="7">
         <v>395</v>
       </c>
@@ -7578,7 +7728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" ht="17.25" customHeight="1">
       <c r="A397" s="4">
         <v>396</v>
       </c>
@@ -7586,7 +7736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" ht="17.25" customHeight="1">
       <c r="A398" s="7">
         <v>397</v>
       </c>
@@ -7594,7 +7744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" ht="17.25" customHeight="1">
       <c r="A399" s="4">
         <v>398</v>
       </c>
@@ -7602,7 +7752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" ht="17.25" customHeight="1">
       <c r="A400" s="7">
         <v>399</v>
       </c>
@@ -7610,7 +7760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="401" spans="1:3" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:3" ht="17.25" customHeight="1" thickBot="1">
       <c r="A401" s="4">
         <v>400</v>
       </c>
@@ -7618,7 +7768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="402" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" ht="17.25" customHeight="1">
       <c r="A402" s="7">
         <v>401</v>
       </c>
@@ -7626,7 +7776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" ht="17.25" customHeight="1">
       <c r="A403" s="4">
         <v>402</v>
       </c>
@@ -7634,7 +7784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" ht="17.25" customHeight="1">
       <c r="A404" s="7">
         <v>403</v>
       </c>
@@ -7642,7 +7792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" ht="17.25" customHeight="1">
       <c r="A405" s="4">
         <v>404</v>
       </c>
@@ -7650,7 +7800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" ht="17.25" customHeight="1">
       <c r="A406" s="7">
         <v>405</v>
       </c>
@@ -7658,7 +7808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" ht="17.25" customHeight="1">
       <c r="A407" s="4">
         <v>406</v>
       </c>
@@ -7666,7 +7816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" ht="17.25" customHeight="1">
       <c r="A408" s="7">
         <v>407</v>
       </c>
@@ -7674,7 +7824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="409" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" ht="17.25" customHeight="1">
       <c r="A409" s="4">
         <v>408</v>
       </c>
@@ -7682,7 +7832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="410" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" ht="17.25" customHeight="1">
       <c r="A410" s="7">
         <v>409</v>
       </c>
@@ -7690,7 +7840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" ht="17.25" customHeight="1">
       <c r="A411" s="4">
         <v>410</v>
       </c>
@@ -7698,7 +7848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" ht="17.25" customHeight="1">
       <c r="A412" s="7">
         <v>411</v>
       </c>
@@ -7706,7 +7856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" ht="17.25" customHeight="1">
       <c r="A413" s="4">
         <v>412</v>
       </c>
@@ -7714,7 +7864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" ht="17.25" customHeight="1">
       <c r="A414" s="7">
         <v>413</v>
       </c>
@@ -7722,7 +7872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" ht="17.25" customHeight="1">
       <c r="A415" s="4">
         <v>414</v>
       </c>
@@ -7730,7 +7880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" ht="17.25" customHeight="1">
       <c r="A416" s="7">
         <v>415</v>
       </c>
@@ -7738,7 +7888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="417" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" ht="17.25" customHeight="1">
       <c r="A417" s="4">
         <v>416</v>
       </c>
@@ -7746,7 +7896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="418" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" ht="17.25" customHeight="1">
       <c r="A418" s="7">
         <v>417</v>
       </c>
@@ -7754,7 +7904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" ht="17.25" customHeight="1">
       <c r="A419" s="4">
         <v>418</v>
       </c>
@@ -7762,7 +7912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="420" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" ht="17.25" customHeight="1">
       <c r="A420" s="7">
         <v>419</v>
       </c>
@@ -7770,7 +7920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="421" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A421" s="4">
         <v>420</v>
       </c>
@@ -7778,7 +7928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="422" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" ht="17.25" customHeight="1">
       <c r="A422" s="7">
         <v>421</v>
       </c>
@@ -7786,7 +7936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" ht="17.25" customHeight="1">
       <c r="A423" s="4">
         <v>422</v>
       </c>
@@ -7794,7 +7944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" ht="17.25" customHeight="1">
       <c r="A424" s="7">
         <v>423</v>
       </c>
@@ -7802,7 +7952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="425" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" ht="17.25" customHeight="1">
       <c r="A425" s="4">
         <v>424</v>
       </c>
@@ -7810,7 +7960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="426" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" ht="17.25" customHeight="1">
       <c r="A426" s="7">
         <v>425</v>
       </c>
@@ -7818,7 +7968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A427" s="1" t="s">
         <v>0</v>
       </c>
@@ -7841,7 +7991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="428" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" ht="17.25" customHeight="1">
       <c r="A428" s="4">
         <v>426</v>
       </c>
@@ -7849,7 +7999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="429" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" ht="17.25" customHeight="1">
       <c r="A429" s="7">
         <v>427</v>
       </c>
@@ -7857,7 +8007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="430" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" ht="17.25" customHeight="1">
       <c r="A430" s="4">
         <v>428</v>
       </c>
@@ -7865,7 +8015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="431" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" ht="17.25" customHeight="1">
       <c r="A431" s="7">
         <v>429</v>
       </c>
@@ -7873,7 +8023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" ht="17.25" customHeight="1">
       <c r="A432" s="4">
         <v>430</v>
       </c>
@@ -7881,7 +8031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3" ht="17.25" customHeight="1">
       <c r="A433" s="7">
         <v>431</v>
       </c>
@@ -7889,7 +8039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3" ht="17.25" customHeight="1">
       <c r="A434" s="4">
         <v>432</v>
       </c>
@@ -7897,7 +8047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3" ht="17.25" customHeight="1">
       <c r="A435" s="7">
         <v>433</v>
       </c>
@@ -7905,7 +8055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3" ht="17.25" customHeight="1">
       <c r="A436" s="4">
         <v>434</v>
       </c>
@@ -7913,7 +8063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3" ht="17.25" customHeight="1">
       <c r="A437" s="7">
         <v>435</v>
       </c>
@@ -7921,7 +8071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3" ht="17.25" customHeight="1">
       <c r="A438" s="4">
         <v>436</v>
       </c>
@@ -7929,7 +8079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3" ht="17.25" customHeight="1">
       <c r="A439" s="7">
         <v>437</v>
       </c>
@@ -7937,7 +8087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3" ht="17.25" customHeight="1">
       <c r="A440" s="4">
         <v>438</v>
       </c>
@@ -7945,7 +8095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3" ht="17.25" customHeight="1">
       <c r="A441" s="7">
         <v>439</v>
       </c>
@@ -7953,7 +8103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="442" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:3" ht="17.25" customHeight="1">
       <c r="A442" s="4">
         <v>440</v>
       </c>
@@ -7961,7 +8111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3" ht="17.25" customHeight="1">
       <c r="A443" s="7">
         <v>441</v>
       </c>
@@ -7969,7 +8119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:3" ht="17.25" customHeight="1">
       <c r="A444" s="4">
         <v>442</v>
       </c>
@@ -7977,7 +8127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="445" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:3" ht="17.25" customHeight="1">
       <c r="A445" s="7">
         <v>443</v>
       </c>
@@ -7985,7 +8135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3" ht="17.25" customHeight="1">
       <c r="A446" s="4">
         <v>444</v>
       </c>
@@ -7993,7 +8143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3" ht="17.25" customHeight="1">
       <c r="A447" s="7">
         <v>445</v>
       </c>
@@ -8001,7 +8151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:3" ht="17.25" customHeight="1">
       <c r="A448" s="4">
         <v>446</v>
       </c>
@@ -8009,7 +8159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3" ht="17.25" customHeight="1">
       <c r="A449" s="7">
         <v>447</v>
       </c>
@@ -8017,7 +8167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:3" ht="17.25" customHeight="1">
       <c r="A450" s="4">
         <v>448</v>
       </c>
@@ -8025,7 +8175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3" ht="17.25" customHeight="1">
       <c r="A451" s="7">
         <v>449</v>
       </c>
@@ -8033,7 +8183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:3" ht="17.25" customHeight="1">
       <c r="A452" s="4">
         <v>450</v>
       </c>
@@ -8048,14 +8198,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J256"/>
   <sheetViews>
     <sheetView topLeftCell="A211" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:G256"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
@@ -8063,7 +8213,7 @@
     <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8086,7 +8236,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="18">
         <v>201</v>
       </c>
@@ -8100,7 +8250,7 @@
       <c r="G2" s="3"/>
       <c r="J2" s="24"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="4">
         <v>202</v>
       </c>
@@ -8113,7 +8263,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="7">
         <v>203</v>
       </c>
@@ -8126,7 +8276,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="4">
         <v>204</v>
       </c>
@@ -8139,7 +8289,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="7">
         <v>205</v>
       </c>
@@ -8152,7 +8302,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="4">
         <v>206</v>
       </c>
@@ -8165,7 +8315,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="7">
         <v>207</v>
       </c>
@@ -8178,7 +8328,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="4">
         <v>208</v>
       </c>
@@ -8191,7 +8341,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="7">
         <v>209</v>
       </c>
@@ -8204,7 +8354,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="4">
         <v>210</v>
       </c>
@@ -8217,7 +8367,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="7">
         <v>211</v>
       </c>
@@ -8230,7 +8380,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="4">
         <v>212</v>
       </c>
@@ -8243,7 +8393,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="7">
         <v>213</v>
       </c>
@@ -8256,7 +8406,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="4">
         <v>214</v>
       </c>
@@ -8269,7 +8419,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="7">
         <v>215</v>
       </c>
@@ -8282,7 +8432,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="4">
         <v>216</v>
       </c>
@@ -8295,7 +8445,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="7">
         <v>217</v>
       </c>
@@ -8308,7 +8458,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="4">
         <v>218</v>
       </c>
@@ -8321,7 +8471,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="7">
         <v>219</v>
       </c>
@@ -8334,7 +8484,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15.75" thickBot="1">
       <c r="A21" s="4">
         <v>220</v>
       </c>
@@ -8347,7 +8497,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="7">
         <v>221</v>
       </c>
@@ -8360,7 +8510,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="4">
         <v>222</v>
       </c>
@@ -8373,7 +8523,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="7">
         <v>223</v>
       </c>
@@ -8386,7 +8536,7 @@
       <c r="F24" s="5"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="4">
         <v>224</v>
       </c>
@@ -8399,7 +8549,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="7">
         <v>225</v>
       </c>
@@ -8412,7 +8562,7 @@
       <c r="F26" s="5"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="4">
         <v>226</v>
       </c>
@@ -8425,7 +8575,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="7">
         <v>227</v>
       </c>
@@ -8438,7 +8588,7 @@
       <c r="F28" s="5"/>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="4">
         <v>228</v>
       </c>
@@ -8451,7 +8601,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="7">
         <v>229</v>
       </c>
@@ -8464,7 +8614,7 @@
       <c r="F30" s="5"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="4">
         <v>230</v>
       </c>
@@ -8477,7 +8627,7 @@
       <c r="F31" s="5"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="7">
         <v>231</v>
       </c>
@@ -8490,7 +8640,7 @@
       <c r="F32" s="5"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="4">
         <v>232</v>
       </c>
@@ -8503,7 +8653,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="7">
         <v>233</v>
       </c>
@@ -8516,7 +8666,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="4">
         <v>234</v>
       </c>
@@ -8529,7 +8679,7 @@
       <c r="F35" s="5"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="7">
         <v>235</v>
       </c>
@@ -8542,7 +8692,7 @@
       <c r="F36" s="5"/>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="4">
         <v>236</v>
       </c>
@@ -8555,7 +8705,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="7">
         <v>237</v>
       </c>
@@ -8568,7 +8718,7 @@
       <c r="F38" s="5"/>
       <c r="G38" s="6"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="4">
         <v>238</v>
       </c>
@@ -8581,7 +8731,7 @@
       <c r="F39" s="5"/>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="7">
         <v>239</v>
       </c>
@@ -8594,7 +8744,7 @@
       <c r="F40" s="5"/>
       <c r="G40" s="6"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="4">
         <v>240</v>
       </c>
@@ -8607,7 +8757,7 @@
       <c r="F41" s="19"/>
       <c r="G41" s="20"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="21">
         <v>241</v>
       </c>
@@ -8620,7 +8770,7 @@
       <c r="F42" s="23"/>
       <c r="G42" s="23"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="22">
         <v>242</v>
       </c>
@@ -8633,7 +8783,7 @@
       <c r="F43" s="23"/>
       <c r="G43" s="23"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="21">
         <v>243</v>
       </c>
@@ -8646,7 +8796,7 @@
       <c r="F44" s="23"/>
       <c r="G44" s="23"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="22">
         <v>244</v>
       </c>
@@ -8659,7 +8809,7 @@
       <c r="F45" s="23"/>
       <c r="G45" s="23"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="21">
         <v>245</v>
       </c>
@@ -8672,7 +8822,7 @@
       <c r="F46" s="23"/>
       <c r="G46" s="23"/>
     </row>
-    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="15.75" thickBot="1">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -8695,7 +8845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="18">
         <v>246</v>
       </c>
@@ -8708,7 +8858,7 @@
       <c r="F48" s="2"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="4">
         <v>247</v>
       </c>
@@ -8721,7 +8871,7 @@
       <c r="F49" s="5"/>
       <c r="G49" s="6"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="7">
         <v>248</v>
       </c>
@@ -8734,7 +8884,7 @@
       <c r="F50" s="5"/>
       <c r="G50" s="6"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="4">
         <v>249</v>
       </c>
@@ -8747,7 +8897,7 @@
       <c r="F51" s="5"/>
       <c r="G51" s="6"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="7">
         <v>250</v>
       </c>
@@ -8760,7 +8910,7 @@
       <c r="F52" s="5"/>
       <c r="G52" s="6"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="4">
         <v>251</v>
       </c>
@@ -8773,7 +8923,7 @@
       <c r="F53" s="5"/>
       <c r="G53" s="6"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="7">
         <v>252</v>
       </c>
@@ -8786,7 +8936,7 @@
       <c r="F54" s="5"/>
       <c r="G54" s="6"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="4">
         <v>253</v>
       </c>
@@ -8799,7 +8949,7 @@
       <c r="F55" s="5"/>
       <c r="G55" s="6"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="7">
         <v>254</v>
       </c>
@@ -8812,7 +8962,7 @@
       <c r="F56" s="5"/>
       <c r="G56" s="6"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="4">
         <v>255</v>
       </c>
@@ -8825,7 +8975,7 @@
       <c r="F57" s="5"/>
       <c r="G57" s="6"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="7">
         <v>256</v>
       </c>
@@ -8838,7 +8988,7 @@
       <c r="F58" s="5"/>
       <c r="G58" s="6"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="4">
         <v>257</v>
       </c>
@@ -8851,7 +9001,7 @@
       <c r="F59" s="5"/>
       <c r="G59" s="6"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="7">
         <v>258</v>
       </c>
@@ -8864,7 +9014,7 @@
       <c r="F60" s="5"/>
       <c r="G60" s="6"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="4">
         <v>259</v>
       </c>
@@ -8877,7 +9027,7 @@
       <c r="F61" s="5"/>
       <c r="G61" s="6"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="7">
         <v>260</v>
       </c>
@@ -8890,7 +9040,7 @@
       <c r="F62" s="5"/>
       <c r="G62" s="6"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="4">
         <v>261</v>
       </c>
@@ -8903,7 +9053,7 @@
       <c r="F63" s="5"/>
       <c r="G63" s="6"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" s="7">
         <v>262</v>
       </c>
@@ -8916,7 +9066,7 @@
       <c r="F64" s="5"/>
       <c r="G64" s="6"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" s="4">
         <v>263</v>
       </c>
@@ -8929,7 +9079,7 @@
       <c r="F65" s="5"/>
       <c r="G65" s="6"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" s="7">
         <v>264</v>
       </c>
@@ -8942,7 +9092,7 @@
       <c r="F66" s="5"/>
       <c r="G66" s="6"/>
     </row>
-    <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="15.75" thickBot="1">
       <c r="A67" s="4">
         <v>265</v>
       </c>
@@ -8955,7 +9105,7 @@
       <c r="F67" s="5"/>
       <c r="G67" s="6"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="7">
         <v>266</v>
       </c>
@@ -8968,7 +9118,7 @@
       <c r="F68" s="5"/>
       <c r="G68" s="6"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" s="4">
         <v>267</v>
       </c>
@@ -8981,7 +9131,7 @@
       <c r="F69" s="5"/>
       <c r="G69" s="6"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" s="7">
         <v>268</v>
       </c>
@@ -8994,7 +9144,7 @@
       <c r="F70" s="5"/>
       <c r="G70" s="6"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" s="4">
         <v>269</v>
       </c>
@@ -9007,7 +9157,7 @@
       <c r="F71" s="5"/>
       <c r="G71" s="6"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" s="7">
         <v>270</v>
       </c>
@@ -9020,7 +9170,7 @@
       <c r="F72" s="5"/>
       <c r="G72" s="6"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" s="4">
         <v>271</v>
       </c>
@@ -9033,7 +9183,7 @@
       <c r="F73" s="5"/>
       <c r="G73" s="6"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" s="7">
         <v>272</v>
       </c>
@@ -9046,7 +9196,7 @@
       <c r="F74" s="5"/>
       <c r="G74" s="6"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" s="4">
         <v>273</v>
       </c>
@@ -9059,7 +9209,7 @@
       <c r="F75" s="5"/>
       <c r="G75" s="6"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" s="7">
         <v>274</v>
       </c>
@@ -9072,7 +9222,7 @@
       <c r="F76" s="5"/>
       <c r="G76" s="6"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="4">
         <v>275</v>
       </c>
@@ -9085,7 +9235,7 @@
       <c r="F77" s="5"/>
       <c r="G77" s="6"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" s="7">
         <v>276</v>
       </c>
@@ -9098,7 +9248,7 @@
       <c r="F78" s="5"/>
       <c r="G78" s="6"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" s="4">
         <v>277</v>
       </c>
@@ -9111,7 +9261,7 @@
       <c r="F79" s="5"/>
       <c r="G79" s="6"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" s="7">
         <v>278</v>
       </c>
@@ -9124,7 +9274,7 @@
       <c r="F80" s="5"/>
       <c r="G80" s="6"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81" s="4">
         <v>279</v>
       </c>
@@ -9137,7 +9287,7 @@
       <c r="F81" s="5"/>
       <c r="G81" s="6"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" s="7">
         <v>280</v>
       </c>
@@ -9150,7 +9300,7 @@
       <c r="F82" s="5"/>
       <c r="G82" s="6"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" s="4">
         <v>281</v>
       </c>
@@ -9163,7 +9313,7 @@
       <c r="F83" s="5"/>
       <c r="G83" s="6"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" s="7">
         <v>282</v>
       </c>
@@ -9176,7 +9326,7 @@
       <c r="F84" s="5"/>
       <c r="G84" s="6"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" s="4">
         <v>283</v>
       </c>
@@ -9189,7 +9339,7 @@
       <c r="F85" s="5"/>
       <c r="G85" s="6"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" s="7">
         <v>284</v>
       </c>
@@ -9202,7 +9352,7 @@
       <c r="F86" s="5"/>
       <c r="G86" s="6"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87" s="4">
         <v>285</v>
       </c>
@@ -9215,7 +9365,7 @@
       <c r="F87" s="19"/>
       <c r="G87" s="20"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88" s="21">
         <v>286</v>
       </c>
@@ -9228,7 +9378,7 @@
       <c r="F88" s="23"/>
       <c r="G88" s="23"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" s="22">
         <v>287</v>
       </c>
@@ -9241,7 +9391,7 @@
       <c r="F89" s="23"/>
       <c r="G89" s="23"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90" s="21">
         <v>288</v>
       </c>
@@ -9254,7 +9404,7 @@
       <c r="F90" s="23"/>
       <c r="G90" s="23"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" s="22">
         <v>289</v>
       </c>
@@ -9267,7 +9417,7 @@
       <c r="F91" s="23"/>
       <c r="G91" s="23"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92" s="21">
         <v>290</v>
       </c>
@@ -9280,7 +9430,7 @@
       <c r="F92" s="23"/>
       <c r="G92" s="23"/>
     </row>
-    <row r="93" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" ht="15.75" thickBot="1">
       <c r="A93" s="1" t="s">
         <v>0</v>
       </c>
@@ -9303,7 +9453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94" s="18">
         <v>291</v>
       </c>
@@ -9316,7 +9466,7 @@
       <c r="F94" s="2"/>
       <c r="G94" s="3"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95" s="4">
         <v>292</v>
       </c>
@@ -9329,7 +9479,7 @@
       <c r="F95" s="5"/>
       <c r="G95" s="6"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96" s="7">
         <v>293</v>
       </c>
@@ -9342,7 +9492,7 @@
       <c r="F96" s="5"/>
       <c r="G96" s="6"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97" s="4">
         <v>294</v>
       </c>
@@ -9355,7 +9505,7 @@
       <c r="F97" s="5"/>
       <c r="G97" s="6"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98" s="7">
         <v>295</v>
       </c>
@@ -9368,7 +9518,7 @@
       <c r="F98" s="5"/>
       <c r="G98" s="6"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7">
       <c r="A99" s="4">
         <v>296</v>
       </c>
@@ -9381,7 +9531,7 @@
       <c r="F99" s="5"/>
       <c r="G99" s="6"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" s="7">
         <v>297</v>
       </c>
@@ -9394,7 +9544,7 @@
       <c r="F100" s="5"/>
       <c r="G100" s="6"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" s="4">
         <v>298</v>
       </c>
@@ -9407,7 +9557,7 @@
       <c r="F101" s="5"/>
       <c r="G101" s="6"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" s="7">
         <v>299</v>
       </c>
@@ -9420,7 +9570,7 @@
       <c r="F102" s="5"/>
       <c r="G102" s="6"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" s="4">
         <v>300</v>
       </c>
@@ -9433,7 +9583,7 @@
       <c r="F103" s="5"/>
       <c r="G103" s="6"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" s="7">
         <v>301</v>
       </c>
@@ -9446,7 +9596,7 @@
       <c r="F104" s="5"/>
       <c r="G104" s="6"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="A105" s="4">
         <v>302</v>
       </c>
@@ -9459,7 +9609,7 @@
       <c r="F105" s="5"/>
       <c r="G105" s="6"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106" s="7">
         <v>303</v>
       </c>
@@ -9472,7 +9622,7 @@
       <c r="F106" s="5"/>
       <c r="G106" s="6"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107" s="4">
         <v>304</v>
       </c>
@@ -9485,7 +9635,7 @@
       <c r="F107" s="5"/>
       <c r="G107" s="6"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108" s="7">
         <v>305</v>
       </c>
@@ -9498,7 +9648,7 @@
       <c r="F108" s="5"/>
       <c r="G108" s="6"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109" s="4">
         <v>306</v>
       </c>
@@ -9511,7 +9661,7 @@
       <c r="F109" s="5"/>
       <c r="G109" s="6"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110" s="7">
         <v>307</v>
       </c>
@@ -9524,7 +9674,7 @@
       <c r="F110" s="5"/>
       <c r="G110" s="6"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111" s="4">
         <v>308</v>
       </c>
@@ -9537,7 +9687,7 @@
       <c r="F111" s="5"/>
       <c r="G111" s="6"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112" s="7">
         <v>309</v>
       </c>
@@ -9550,7 +9700,7 @@
       <c r="F112" s="5"/>
       <c r="G112" s="6"/>
     </row>
-    <row r="113" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" ht="15.75" thickBot="1">
       <c r="A113" s="4">
         <v>310</v>
       </c>
@@ -9563,7 +9713,7 @@
       <c r="F113" s="5"/>
       <c r="G113" s="6"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" s="7">
         <v>311</v>
       </c>
@@ -9576,7 +9726,7 @@
       <c r="F114" s="5"/>
       <c r="G114" s="6"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" s="4">
         <v>312</v>
       </c>
@@ -9589,7 +9739,7 @@
       <c r="F115" s="5"/>
       <c r="G115" s="6"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" s="7">
         <v>313</v>
       </c>
@@ -9602,7 +9752,7 @@
       <c r="F116" s="5"/>
       <c r="G116" s="6"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" s="4">
         <v>314</v>
       </c>
@@ -9615,7 +9765,7 @@
       <c r="F117" s="5"/>
       <c r="G117" s="6"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" s="7">
         <v>315</v>
       </c>
@@ -9628,7 +9778,7 @@
       <c r="F118" s="5"/>
       <c r="G118" s="6"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" s="4">
         <v>316</v>
       </c>
@@ -9641,7 +9791,7 @@
       <c r="F119" s="5"/>
       <c r="G119" s="6"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" s="7">
         <v>317</v>
       </c>
@@ -9654,7 +9804,7 @@
       <c r="F120" s="5"/>
       <c r="G120" s="6"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" s="4">
         <v>318</v>
       </c>
@@ -9667,7 +9817,7 @@
       <c r="F121" s="5"/>
       <c r="G121" s="6"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" s="7">
         <v>319</v>
       </c>
@@ -9680,7 +9830,7 @@
       <c r="F122" s="5"/>
       <c r="G122" s="6"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123" s="4">
         <v>320</v>
       </c>
@@ -9693,7 +9843,7 @@
       <c r="F123" s="5"/>
       <c r="G123" s="6"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124" s="7">
         <v>321</v>
       </c>
@@ -9706,7 +9856,7 @@
       <c r="F124" s="5"/>
       <c r="G124" s="6"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" s="4">
         <v>322</v>
       </c>
@@ -9719,7 +9869,7 @@
       <c r="F125" s="5"/>
       <c r="G125" s="6"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126" s="7">
         <v>323</v>
       </c>
@@ -9732,7 +9882,7 @@
       <c r="F126" s="5"/>
       <c r="G126" s="6"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127" s="4">
         <v>324</v>
       </c>
@@ -9745,7 +9895,7 @@
       <c r="F127" s="5"/>
       <c r="G127" s="6"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128" s="7">
         <v>325</v>
       </c>
@@ -9758,7 +9908,7 @@
       <c r="F128" s="5"/>
       <c r="G128" s="6"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7">
       <c r="A129" s="4">
         <v>326</v>
       </c>
@@ -9771,7 +9921,7 @@
       <c r="F129" s="5"/>
       <c r="G129" s="6"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130" s="7">
         <v>327</v>
       </c>
@@ -9784,7 +9934,7 @@
       <c r="F130" s="5"/>
       <c r="G130" s="6"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7">
       <c r="A131" s="4">
         <v>328</v>
       </c>
@@ -9797,7 +9947,7 @@
       <c r="F131" s="5"/>
       <c r="G131" s="6"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7">
       <c r="A132" s="7">
         <v>329</v>
       </c>
@@ -9810,7 +9960,7 @@
       <c r="F132" s="5"/>
       <c r="G132" s="6"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133" s="4">
         <v>330</v>
       </c>
@@ -9823,7 +9973,7 @@
       <c r="F133" s="19"/>
       <c r="G133" s="20"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7">
       <c r="A134" s="21">
         <v>331</v>
       </c>
@@ -9836,7 +9986,7 @@
       <c r="F134" s="23"/>
       <c r="G134" s="23"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7">
       <c r="A135" s="22">
         <v>332</v>
       </c>
@@ -9849,7 +9999,7 @@
       <c r="F135" s="23"/>
       <c r="G135" s="23"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7">
       <c r="A136" s="21">
         <v>333</v>
       </c>
@@ -9862,7 +10012,7 @@
       <c r="F136" s="23"/>
       <c r="G136" s="23"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7">
       <c r="A137" s="22">
         <v>334</v>
       </c>
@@ -9875,7 +10025,7 @@
       <c r="F137" s="23"/>
       <c r="G137" s="23"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7">
       <c r="A138" s="21">
         <v>335</v>
       </c>
@@ -9888,7 +10038,7 @@
       <c r="F138" s="23"/>
       <c r="G138" s="23"/>
     </row>
-    <row r="139" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" ht="15.75" thickBot="1">
       <c r="A139" s="1" t="s">
         <v>0</v>
       </c>
@@ -9911,7 +10061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7">
       <c r="A140" s="18">
         <v>336</v>
       </c>
@@ -9924,7 +10074,7 @@
       <c r="F140" s="2"/>
       <c r="G140" s="3"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7">
       <c r="A141" s="4">
         <v>337</v>
       </c>
@@ -9937,7 +10087,7 @@
       <c r="F141" s="5"/>
       <c r="G141" s="6"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7">
       <c r="A142" s="7">
         <v>338</v>
       </c>
@@ -9950,7 +10100,7 @@
       <c r="F142" s="5"/>
       <c r="G142" s="6"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7">
       <c r="A143" s="4">
         <v>339</v>
       </c>
@@ -9963,7 +10113,7 @@
       <c r="F143" s="5"/>
       <c r="G143" s="6"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7">
       <c r="A144" s="7">
         <v>340</v>
       </c>
@@ -9976,7 +10126,7 @@
       <c r="F144" s="5"/>
       <c r="G144" s="6"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7">
       <c r="A145" s="4">
         <v>341</v>
       </c>
@@ -9989,7 +10139,7 @@
       <c r="F145" s="5"/>
       <c r="G145" s="6"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7">
       <c r="A146" s="7">
         <v>342</v>
       </c>
@@ -10002,7 +10152,7 @@
       <c r="F146" s="5"/>
       <c r="G146" s="6"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7">
       <c r="A147" s="4">
         <v>343</v>
       </c>
@@ -10015,7 +10165,7 @@
       <c r="F147" s="5"/>
       <c r="G147" s="6"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7">
       <c r="A148" s="7">
         <v>344</v>
       </c>
@@ -10028,7 +10178,7 @@
       <c r="F148" s="5"/>
       <c r="G148" s="6"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7">
       <c r="A149" s="4">
         <v>345</v>
       </c>
@@ -10041,7 +10191,7 @@
       <c r="F149" s="5"/>
       <c r="G149" s="6"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7">
       <c r="A150" s="7">
         <v>346</v>
       </c>
@@ -10054,7 +10204,7 @@
       <c r="F150" s="5"/>
       <c r="G150" s="6"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7">
       <c r="A151" s="4">
         <v>347</v>
       </c>
@@ -10067,7 +10217,7 @@
       <c r="F151" s="5"/>
       <c r="G151" s="6"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7">
       <c r="A152" s="7">
         <v>348</v>
       </c>
@@ -10080,7 +10230,7 @@
       <c r="F152" s="5"/>
       <c r="G152" s="6"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7">
       <c r="A153" s="4">
         <v>349</v>
       </c>
@@ -10093,7 +10243,7 @@
       <c r="F153" s="5"/>
       <c r="G153" s="6"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7">
       <c r="A154" s="7">
         <v>350</v>
       </c>
@@ -10106,7 +10256,7 @@
       <c r="F154" s="5"/>
       <c r="G154" s="6"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7">
       <c r="A155" s="4">
         <v>351</v>
       </c>
@@ -10119,7 +10269,7 @@
       <c r="F155" s="5"/>
       <c r="G155" s="6"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7">
       <c r="A156" s="7">
         <v>352</v>
       </c>
@@ -10132,7 +10282,7 @@
       <c r="F156" s="5"/>
       <c r="G156" s="6"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7">
       <c r="A157" s="4">
         <v>353</v>
       </c>
@@ -10145,7 +10295,7 @@
       <c r="F157" s="5"/>
       <c r="G157" s="6"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7">
       <c r="A158" s="7">
         <v>354</v>
       </c>
@@ -10158,7 +10308,7 @@
       <c r="F158" s="5"/>
       <c r="G158" s="6"/>
     </row>
-    <row r="159" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" ht="15.75" thickBot="1">
       <c r="A159" s="4">
         <v>355</v>
       </c>
@@ -10171,7 +10321,7 @@
       <c r="F159" s="5"/>
       <c r="G159" s="6"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7">
       <c r="A160" s="7">
         <v>356</v>
       </c>
@@ -10184,7 +10334,7 @@
       <c r="F160" s="5"/>
       <c r="G160" s="6"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7">
       <c r="A161" s="4">
         <v>357</v>
       </c>
@@ -10197,7 +10347,7 @@
       <c r="F161" s="5"/>
       <c r="G161" s="6"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7">
       <c r="A162" s="7">
         <v>358</v>
       </c>
@@ -10210,7 +10360,7 @@
       <c r="F162" s="5"/>
       <c r="G162" s="6"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7">
       <c r="A163" s="4">
         <v>359</v>
       </c>
@@ -10223,7 +10373,7 @@
       <c r="F163" s="5"/>
       <c r="G163" s="6"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7">
       <c r="A164" s="7">
         <v>360</v>
       </c>
@@ -10236,7 +10386,7 @@
       <c r="F164" s="5"/>
       <c r="G164" s="6"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7">
       <c r="A165" s="4">
         <v>361</v>
       </c>
@@ -10249,7 +10399,7 @@
       <c r="F165" s="5"/>
       <c r="G165" s="6"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7">
       <c r="A166" s="7">
         <v>362</v>
       </c>
@@ -10262,7 +10412,7 @@
       <c r="F166" s="5"/>
       <c r="G166" s="6"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7">
       <c r="A167" s="4">
         <v>363</v>
       </c>
@@ -10275,7 +10425,7 @@
       <c r="F167" s="5"/>
       <c r="G167" s="6"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7">
       <c r="A168" s="7">
         <v>364</v>
       </c>
@@ -10288,7 +10438,7 @@
       <c r="F168" s="5"/>
       <c r="G168" s="6"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7">
       <c r="A169" s="4">
         <v>365</v>
       </c>
@@ -10301,7 +10451,7 @@
       <c r="F169" s="5"/>
       <c r="G169" s="6"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7">
       <c r="A170" s="7">
         <v>366</v>
       </c>
@@ -10314,7 +10464,7 @@
       <c r="F170" s="5"/>
       <c r="G170" s="6"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7">
       <c r="A171" s="4">
         <v>367</v>
       </c>
@@ -10327,7 +10477,7 @@
       <c r="F171" s="5"/>
       <c r="G171" s="6"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7">
       <c r="A172" s="7">
         <v>368</v>
       </c>
@@ -10340,7 +10490,7 @@
       <c r="F172" s="5"/>
       <c r="G172" s="6"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7">
       <c r="A173" s="4">
         <v>369</v>
       </c>
@@ -10353,7 +10503,7 @@
       <c r="F173" s="5"/>
       <c r="G173" s="6"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7">
       <c r="A174" s="7">
         <v>370</v>
       </c>
@@ -10366,7 +10516,7 @@
       <c r="F174" s="5"/>
       <c r="G174" s="6"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7">
       <c r="A175" s="4">
         <v>371</v>
       </c>
@@ -10379,7 +10529,7 @@
       <c r="F175" s="5"/>
       <c r="G175" s="6"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7">
       <c r="A176" s="7">
         <v>372</v>
       </c>
@@ -10392,7 +10542,7 @@
       <c r="F176" s="5"/>
       <c r="G176" s="6"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7">
       <c r="A177" s="4">
         <v>373</v>
       </c>
@@ -10405,7 +10555,7 @@
       <c r="F177" s="5"/>
       <c r="G177" s="6"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7">
       <c r="A178" s="7">
         <v>374</v>
       </c>
@@ -10418,7 +10568,7 @@
       <c r="F178" s="5"/>
       <c r="G178" s="6"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7">
       <c r="A179" s="4">
         <v>375</v>
       </c>
@@ -10431,7 +10581,7 @@
       <c r="F179" s="19"/>
       <c r="G179" s="20"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7">
       <c r="A180" s="21">
         <v>376</v>
       </c>
@@ -10444,7 +10594,7 @@
       <c r="F180" s="23"/>
       <c r="G180" s="23"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7">
       <c r="A181" s="22">
         <v>377</v>
       </c>
@@ -10457,7 +10607,7 @@
       <c r="F181" s="23"/>
       <c r="G181" s="23"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7">
       <c r="A182" s="21">
         <v>378</v>
       </c>
@@ -10470,7 +10620,7 @@
       <c r="F182" s="23"/>
       <c r="G182" s="23"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7">
       <c r="A183" s="22">
         <v>379</v>
       </c>
@@ -10483,7 +10633,7 @@
       <c r="F183" s="23"/>
       <c r="G183" s="23"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7">
       <c r="A184" s="21">
         <v>380</v>
       </c>
@@ -10496,7 +10646,7 @@
       <c r="F184" s="23"/>
       <c r="G184" s="23"/>
     </row>
-    <row r="185" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" ht="15.75" thickBot="1">
       <c r="A185" s="1" t="s">
         <v>0</v>
       </c>
@@ -10519,7 +10669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7">
       <c r="A186" s="7">
         <v>381</v>
       </c>
@@ -10527,7 +10677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7">
       <c r="A187" s="4">
         <v>382</v>
       </c>
@@ -10535,7 +10685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7">
       <c r="A188" s="7">
         <v>383</v>
       </c>
@@ -10543,7 +10693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7">
       <c r="A189" s="4">
         <v>384</v>
       </c>
@@ -10551,7 +10701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7">
       <c r="A190" s="7">
         <v>385</v>
       </c>
@@ -10559,7 +10709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7">
       <c r="A191" s="4">
         <v>386</v>
       </c>
@@ -10567,7 +10717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7">
       <c r="A192" s="7">
         <v>387</v>
       </c>
@@ -10575,7 +10725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3">
       <c r="A193" s="4">
         <v>388</v>
       </c>
@@ -10583,7 +10733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3">
       <c r="A194" s="7">
         <v>389</v>
       </c>
@@ -10591,7 +10741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3">
       <c r="A195" s="4">
         <v>390</v>
       </c>
@@ -10599,7 +10749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3">
       <c r="A196" s="7">
         <v>391</v>
       </c>
@@ -10607,7 +10757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3">
       <c r="A197" s="4">
         <v>392</v>
       </c>
@@ -10615,7 +10765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3">
       <c r="A198" s="7">
         <v>393</v>
       </c>
@@ -10623,7 +10773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3">
       <c r="A199" s="4">
         <v>394</v>
       </c>
@@ -10631,7 +10781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3">
       <c r="A200" s="7">
         <v>395</v>
       </c>
@@ -10639,7 +10789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3">
       <c r="A201" s="4">
         <v>396</v>
       </c>
@@ -10647,7 +10797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3">
       <c r="A202" s="7">
         <v>397</v>
       </c>
@@ -10655,7 +10805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3">
       <c r="A203" s="4">
         <v>398</v>
       </c>
@@ -10663,7 +10813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3">
       <c r="A204" s="7">
         <v>399</v>
       </c>
@@ -10671,7 +10821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" ht="15.75" thickBot="1">
       <c r="A205" s="4">
         <v>400</v>
       </c>
@@ -10679,7 +10829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3">
       <c r="A206" s="7">
         <v>401</v>
       </c>
@@ -10687,7 +10837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3">
       <c r="A207" s="4">
         <v>402</v>
       </c>
@@ -10695,7 +10845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3">
       <c r="A208" s="7">
         <v>403</v>
       </c>
@@ -10703,7 +10853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3">
       <c r="A209" s="4">
         <v>404</v>
       </c>
@@ -10711,7 +10861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3">
       <c r="A210" s="7">
         <v>405</v>
       </c>
@@ -10719,7 +10869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3">
       <c r="A211" s="4">
         <v>406</v>
       </c>
@@ -10727,7 +10877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3">
       <c r="A212" s="7">
         <v>407</v>
       </c>
@@ -10735,7 +10885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3">
       <c r="A213" s="4">
         <v>408</v>
       </c>
@@ -10743,7 +10893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3">
       <c r="A214" s="7">
         <v>409</v>
       </c>
@@ -10751,7 +10901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3">
       <c r="A215" s="4">
         <v>410</v>
       </c>
@@ -10759,7 +10909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3">
       <c r="A216" s="7">
         <v>411</v>
       </c>
@@ -10767,7 +10917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3">
       <c r="A217" s="4">
         <v>412</v>
       </c>
@@ -10775,7 +10925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3">
       <c r="A218" s="7">
         <v>413</v>
       </c>
@@ -10783,7 +10933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3">
       <c r="A219" s="4">
         <v>414</v>
       </c>
@@ -10791,7 +10941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3">
       <c r="A220" s="7">
         <v>415</v>
       </c>
@@ -10799,7 +10949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3">
       <c r="A221" s="4">
         <v>416</v>
       </c>
@@ -10807,7 +10957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3">
       <c r="A222" s="7">
         <v>417</v>
       </c>
@@ -10815,7 +10965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3">
       <c r="A223" s="4">
         <v>418</v>
       </c>
@@ -10823,7 +10973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3">
       <c r="A224" s="7">
         <v>419</v>
       </c>
@@ -10831,7 +10981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" ht="15.75" thickBot="1">
       <c r="A225" s="4">
         <v>420</v>
       </c>
@@ -10839,7 +10989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7">
       <c r="A226" s="7">
         <v>421</v>
       </c>
@@ -10847,7 +10997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7">
       <c r="A227" s="4">
         <v>422</v>
       </c>
@@ -10855,7 +11005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7">
       <c r="A228" s="7">
         <v>423</v>
       </c>
@@ -10863,7 +11013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7">
       <c r="A229" s="4">
         <v>424</v>
       </c>
@@ -10871,7 +11021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7">
       <c r="A230" s="7">
         <v>425</v>
       </c>
@@ -10879,7 +11029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" ht="15.75" thickBot="1">
       <c r="A231" s="1" t="s">
         <v>0</v>
       </c>
@@ -10902,7 +11052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7">
       <c r="A232" s="4">
         <v>426</v>
       </c>
@@ -10910,7 +11060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7">
       <c r="A233" s="7">
         <v>427</v>
       </c>
@@ -10918,7 +11068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7">
       <c r="A234" s="4">
         <v>428</v>
       </c>
@@ -10926,7 +11076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7">
       <c r="A235" s="7">
         <v>429</v>
       </c>
@@ -10934,7 +11084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7">
       <c r="A236" s="4">
         <v>430</v>
       </c>
@@ -10942,7 +11092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7">
       <c r="A237" s="7">
         <v>431</v>
       </c>
@@ -10950,7 +11100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7">
       <c r="A238" s="4">
         <v>432</v>
       </c>
@@ -10958,7 +11108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7">
       <c r="A239" s="7">
         <v>433</v>
       </c>
@@ -10966,7 +11116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7">
       <c r="A240" s="4">
         <v>434</v>
       </c>
@@ -10974,7 +11124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3">
       <c r="A241" s="7">
         <v>435</v>
       </c>
@@ -10982,7 +11132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3">
       <c r="A242" s="4">
         <v>436</v>
       </c>
@@ -10990,7 +11140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3">
       <c r="A243" s="7">
         <v>437</v>
       </c>
@@ -10998,7 +11148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3">
       <c r="A244" s="4">
         <v>438</v>
       </c>
@@ -11006,7 +11156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3">
       <c r="A245" s="7">
         <v>439</v>
       </c>
@@ -11014,7 +11164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3">
       <c r="A246" s="4">
         <v>440</v>
       </c>
@@ -11022,7 +11172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3">
       <c r="A247" s="7">
         <v>441</v>
       </c>
@@ -11030,7 +11180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3">
       <c r="A248" s="4">
         <v>442</v>
       </c>
@@ -11038,7 +11188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3">
       <c r="A249" s="7">
         <v>443</v>
       </c>
@@ -11046,7 +11196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3">
       <c r="A250" s="4">
         <v>444</v>
       </c>
@@ -11054,7 +11204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3">
       <c r="A251" s="7">
         <v>445</v>
       </c>
@@ -11062,7 +11212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3">
       <c r="A252" s="4">
         <v>446</v>
       </c>
@@ -11070,7 +11220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3">
       <c r="A253" s="7">
         <v>447</v>
       </c>
@@ -11078,7 +11228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3">
       <c r="A254" s="4">
         <v>448</v>
       </c>
@@ -11086,7 +11236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3">
       <c r="A255" s="7">
         <v>449</v>
       </c>
@@ -11094,7 +11244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3">
       <c r="A256" s="4">
         <v>450</v>
       </c>
@@ -11109,12 +11259,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
